--- a/application/output_max_withoutMP/compiled_results.xlsx
+++ b/application/output_max_withoutMP/compiled_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,32 +527,72 @@
       <c r="S1" s="1" t="inlineStr"/>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>vCarbonSources</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>RBA: vCarbonSources</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>carbonSlack</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>RBA: carbonSlack</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>vprod</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>RBA: vprod</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>vCarbonSources</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>RBA: vCarbonSources</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>yield</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>RBA: yield</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>yield on minimal media at 1.0% exp. growth</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>FBA: yield on minimal media at 1.0% exp. growth</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>yield on minimal media at 0.0% exp. growth</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>FBA: yield on minimal media at 0.0% exp. growth</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>RBA: yield on minimal media at 1.0% exp. growth</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>RBA: yield on minimal media at 0.0% exp. growth</t>
         </is>
       </c>
     </row>
@@ -576,18 +616,26 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382216596247</v>
+        <v>17.8138221659621</v>
       </c>
       <c r="F2" t="n">
-        <v>0.569551694531946</v>
+        <v>0.5695516945319341</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>17.03005393819904</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5444926971935806</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9560022425024171</v>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -597,11 +645,27 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>17.03005393819904</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
+        <v>0.5444926971935806</v>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -623,18 +687,26 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>6.94137006864536</v>
+        <v>6.941370065782265</v>
       </c>
       <c r="F3" t="n">
-        <v>0.35630562167247</v>
+        <v>0.3563056215255053</v>
       </c>
       <c r="G3" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>6.503098170437087</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3338088033774693</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9368608947237009</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -644,11 +716,27 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>6.503098170437087</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>0.3338088033774693</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -670,18 +758,26 @@
         <v>90.08</v>
       </c>
       <c r="E4" t="n">
-        <v>20.06614336395802</v>
+        <v>20.06614450050855</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7595226681351469</v>
+        <v>0.7595227111546687</v>
       </c>
       <c r="G4" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>15.22378166356998</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.5762346584740462</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7586799578356547</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -691,11 +787,27 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>15.22378166356998</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
+        <v>0.5762346584740462</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -717,18 +829,26 @@
         <v>90.08</v>
       </c>
       <c r="E5" t="n">
-        <v>22.34089255342154</v>
+        <v>22.34089255192158</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8456240949206675</v>
+        <v>0.8456240948638927</v>
       </c>
       <c r="G5" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>20.4935941299499</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7757020873884602</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9173131325134642</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -738,11 +858,27 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>20.4935941299499</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
+        <v>0.7757020873884602</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -764,18 +900,26 @@
         <v>90.08</v>
       </c>
       <c r="E6" t="n">
-        <v>20.06614336395802</v>
+        <v>20.06614450050855</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7595226681351469</v>
+        <v>0.7595227111546687</v>
       </c>
       <c r="G6" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>15.22378166356998</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5762346584740462</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7586799578356547</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -785,11 +929,27 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>15.22378166356998</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
+        <v>0.5762346584740462</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -811,18 +971,26 @@
         <v>90.08</v>
       </c>
       <c r="E7" t="n">
-        <v>22.34089255342154</v>
+        <v>22.34089255192158</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8456240949206675</v>
+        <v>0.8456240948638927</v>
       </c>
       <c r="G7" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>20.4935941299499</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.7757020873884602</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.9173131325134642</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -832,11 +1000,27 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>20.4935941299499</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="n">
+        <v>0.7757020873884602</v>
+      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -858,18 +1042,26 @@
         <v>137.11</v>
       </c>
       <c r="E8" t="n">
-        <v>9.055951953675661</v>
+        <v>9.055951953675855</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5217370668225439</v>
+        <v>0.5217370668225551</v>
       </c>
       <c r="G8" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>7.956152383411257</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.458374738398358</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8785550568410221</v>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -879,11 +1071,27 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="n">
+        <v>7.956152383411257</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="n">
+        <v>0.458374738398358</v>
+      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -905,18 +1113,26 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697473525611</v>
+        <v>2.844697658781199</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995630396698</v>
+        <v>0.2800995812806286</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>2.398459109383042</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2361612631075644</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8431332243619357</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -926,11 +1142,27 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>2.398459109383042</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="n">
+        <v>0.2361612631075644</v>
+      </c>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -952,18 +1184,26 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>12.89443785215275</v>
+        <v>12.8944378515529</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4882834990884113</v>
+        <v>0.4882834990656963</v>
       </c>
       <c r="G10" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>12.31090878407757</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4661865594275652</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.95474567606644</v>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -973,11 +1213,27 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="n">
+        <v>12.31090878407757</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
+        <v>0.4661865594275652</v>
+      </c>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -999,18 +1255,26 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>11.19787227146827</v>
+        <v>11.1978729796163</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3487541400368432</v>
+        <v>0.3487541620918865</v>
       </c>
       <c r="G11" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>10.06059178759377</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3133339041635572</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.898437748481989</v>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1020,11 +1284,27 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="Y11" t="n">
+        <v>10.06059178759377</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="n">
+        <v>0.3133339041635572</v>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1046,18 +1326,26 @@
         <v>146.1</v>
       </c>
       <c r="E12" t="n">
-        <v>12.4893710888022</v>
+        <v>12.48937108880212</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7667243171293773</v>
+        <v>0.7667243171293724</v>
       </c>
       <c r="G12" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>11.49508371910139</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.7056848701353072</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9203893164330593</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -1067,11 +1355,27 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+      <c r="Y12" t="n">
+        <v>11.49508371910139</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
+        <v>0.7056848701353072</v>
+      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1093,18 +1397,26 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>7.096204244674806</v>
+        <v>7.096204244674719</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4864762434751412</v>
+        <v>0.4864762434751352</v>
       </c>
       <c r="G13" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>6.448760769918064</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.4420911245295426</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9087620011441294</v>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1114,11 +1426,27 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+      <c r="Y13" t="n">
+        <v>6.448760769918064</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
+        <v>0.4420911245295426</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1140,18 +1468,26 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>2.761960145192973</v>
+        <v>2.76196014519293</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2975663925932701</v>
+        <v>0.2975663925932656</v>
       </c>
       <c r="G14" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>2.125096075944671</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2289523164675456</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.7694159090757724</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1161,11 +1497,27 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
+      <c r="U14" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+      <c r="Y14" t="n">
+        <v>2.125096075944671</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
+        <v>0.2289523164675456</v>
+      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1187,18 +1539,26 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>2.677177254985002</v>
+        <v>2.677177423438271</v>
       </c>
       <c r="F15" t="n">
-        <v>0.272728079141304</v>
+        <v>0.2727280963018923</v>
       </c>
       <c r="G15" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>2.097690532032536</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.2136948938920141</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.7835455781404632</v>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -1208,11 +1568,27 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Y15" t="n">
+        <v>2.097690532032536</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
+        <v>0.2136948938920141</v>
+      </c>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1234,18 +1610,26 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>12.52385380260004</v>
+        <v>12.52385380260007</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3900514094987285</v>
+        <v>0.3900514094987295</v>
       </c>
       <c r="G16" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>11.8302192595611</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3684483841477635</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.9446149281226062</v>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -1255,11 +1639,27 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+      <c r="Y16" t="n">
+        <v>11.8302192595611</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
+        <v>0.3684483841477635</v>
+      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1281,18 +1681,26 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>24.24659128144881</v>
+        <v>24.24659127198081</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9074664878455516</v>
+        <v>0.9074664874911968</v>
       </c>
       <c r="G17" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>23.15800090048398</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8667242953348701</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9551033644570571</v>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1302,11 +1710,27 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
+      <c r="U17" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="Y17" t="n">
+        <v>23.15800090048398</v>
+      </c>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="n">
+        <v>0.8667242953348701</v>
+      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1328,18 +1752,26 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>10.42241535680198</v>
+        <v>10.42241535589292</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6135132743372725</v>
+        <v>0.6135132742837609</v>
       </c>
       <c r="G18" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>9.619565848243479</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5662537079187897</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9229689587073012</v>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -1349,11 +1781,27 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
+      <c r="U18" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="Y18" t="n">
+        <v>9.619565848243479</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
+        <v>0.5662537079187897</v>
+      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1375,18 +1823,26 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969092790097498</v>
+        <v>3.969093041860369</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540540901662012</v>
+        <v>0.4540541189672314</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>3.183054426087371</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3641333064806223</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8019601436693529</v>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1396,11 +1852,27 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+      <c r="Y19" t="n">
+        <v>3.183054426087371</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
+        <v>0.3641333064806223</v>
+      </c>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1422,10 +1894,10 @@
         <v>268.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.09996363129559631</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.2355252494907961</v>
       </c>
       <c r="G20" t="n">
         <v>-0.332925</v>
@@ -1442,7 +1914,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS:(0.0133333333333333,1000)</t>
+          <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS_AERO_SC_hvd:(0.0133333333333333,1000)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1472,6 +1944,14 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1493,13 +1973,13 @@
         <v>242.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.1141673731007368</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.242883181049906</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.3252322043717087</v>
+        <v>-0.332925</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1513,7 +1993,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS:(0.0133333333333333,1000)</t>
+          <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS_AERO_SC_hvd:(0.0133333333333333,1000)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1539,6 +2019,14 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1560,18 +2048,26 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>12.48937108880206</v>
+        <v>12.48937108880207</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5410628137990273</v>
+        <v>0.5410628137990281</v>
       </c>
       <c r="G22" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>11.37822043193668</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4929256981121332</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9110322970656509</v>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -1581,11 +2077,27 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
+      <c r="U22" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+      <c r="Y22" t="n">
+        <v>11.37822043193668</v>
+      </c>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="n">
+        <v>0.4929256981121332</v>
+      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1607,18 +2119,26 @@
         <v>329.4</v>
       </c>
       <c r="E23" t="n">
-        <v>2.51114387931878</v>
+        <v>2.511143879318773</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3475710880865173</v>
+        <v>0.3475710880865164</v>
       </c>
       <c r="G23" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>1.612900652995342</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2232439325974119</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.6422971882570471</v>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -1628,11 +2148,27 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
+      <c r="U23" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
+      <c r="Y23" t="n">
+        <v>1.612900652995342</v>
+      </c>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="n">
+        <v>0.2232439325974119</v>
+      </c>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1654,18 +2190,26 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>3.969092790097513</v>
+        <v>3.969093042542851</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3806549331112364</v>
+        <v>0.3806549573219487</v>
       </c>
       <c r="G24" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>3.183054425983536</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.3052701041999122</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8019601435052957</v>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -1675,11 +2219,27 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
+      <c r="U24" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+      <c r="Y24" t="n">
+        <v>3.183054425983536</v>
+      </c>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="n">
+        <v>0.3052701041999122</v>
+      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1701,18 +2261,26 @@
         <v>246.3</v>
       </c>
       <c r="E25" t="n">
-        <v>2.957466810711355</v>
+        <v>2.957467003591014</v>
       </c>
       <c r="F25" t="n">
-        <v>0.30607844279016</v>
+        <v>0.3060784627519413</v>
       </c>
       <c r="G25" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>2.49126643275709</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2578297573964248</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.8423649121806416</v>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -1722,11 +2290,27 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
+      <c r="Y25" t="n">
+        <v>2.49126643275709</v>
+      </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="n">
+        <v>0.2578297573964248</v>
+      </c>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1748,18 +2332,26 @@
         <v>174.15</v>
       </c>
       <c r="E26" t="n">
-        <v>9.725651658297076</v>
+        <v>9.725652210493044</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7116896352761561</v>
+        <v>0.711689675683952</v>
       </c>
       <c r="G26" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>9.021226749399331</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6601422506785201</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9275703628046963</v>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -1769,11 +2361,27 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+      <c r="Y26" t="n">
+        <v>9.021226749399331</v>
+      </c>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="n">
+        <v>0.6601422506785201</v>
+      </c>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1795,10 +2403,10 @@
         <v>270.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.1013955796569955</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.2406785854081312</v>
       </c>
       <c r="G27" t="n">
         <v>-0.332925</v>
@@ -1815,7 +2423,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS:(0.0133333333333333,1000)</t>
+          <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS_AERO_SC_hvd:(0.0133333333333333,1000)</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1841,6 +2449,14 @@
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1862,18 +2478,26 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>6.766253896689476</v>
+        <v>6.766253893937488</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2961120058722297</v>
+        <v>0.2961120057517942</v>
       </c>
       <c r="G28" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>6.182032002992508</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.2705446654415486</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9136565224860334</v>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -1883,11 +2507,27 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
+      <c r="U28" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+      <c r="Y28" t="n">
+        <v>6.182032002992508</v>
+      </c>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="n">
+        <v>0.2705446654415486</v>
+      </c>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1909,18 +2549,26 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.1308423264807957</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.2719810760859471</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>0.125037675289547</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.2599149861610547</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-2.201133727157571</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9556362887501794</v>
+      </c>
       <c r="L29" t="n">
         <v>0.129384</v>
       </c>
@@ -1929,7 +2577,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>c_sources:EX_glc__D_e;BIOMASS:(0.009615384615,0.14);EX_glc__D_e:(-2.20113372715757,1000);EX_nh4_e:(-0.181824845165991,1000);EX_o2_e:(-26.25403530509562,1000)</t>
+          <t>c_sources:EX_glc__D_e;BIOMASS_AERO_SC_hvd:(0.009615384615,0.14);EX_glc__D_e:(-2.20113372715757,1000);EX_nh4_e:(-0.181824845165991,1000);EX_o2_e:(-26.25403530509562,1000)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -1946,11 +2594,35 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
+      <c r="U29" t="n">
+        <v>-2.201133727157571</v>
+      </c>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+      <c r="Y29" t="n">
+        <v>0.125037675289547</v>
+      </c>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="n">
+        <v>0.2599149861610547</v>
+      </c>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="n">
+        <v>0.189023482934108</v>
+      </c>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="n">
+        <v>0.319626121189274</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.155546644922741</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1972,10 +2644,10 @@
         <v>126.11004</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.007105612026366954</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.06718413989473716</v>
       </c>
       <c r="G30" t="n">
         <v>-0.078476895921783</v>
@@ -1992,7 +2664,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>c_sources:EX_xyl__D_e,EX_glc__D_e;EX_xyl__D_e:(-0.0266525306904169,-0.0266525306904169);EX_glc__D_e:(-0.0518243652313661,-0.0518243652313661);BIOMASS:(0,0.0138888888888889);BiomassKim_e:(0,0);EX_btn_c:(0,0.02);ATPM_c:(0,1000);EX_4abz_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_thm_e:(-1000,1000);EX_o2_e:(-26.25403530509562,1000)</t>
+          <t>c_sources:EX_xyl__D_e,EX_glc__D_e;EX_xyl__D_e:(-0.0266525306904169,-0.0266525306904169);EX_glc__D_e:(-0.0518243652313661,-0.0518243652313661);BIOMASS_AERO_SC_hvd:(0,0.0138888888888889);BiomassKim_e:(0,0);EX_btn_c:(0,0.02);ATPM_c:(0,1000);EX_4abz_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_thm_e:(-1000,1000);EX_o2_e:(-26.25403530509562,1000)</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2018,6 +2690,14 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/application/output_max_withoutMP/compiled_results.xlsx
+++ b/application/output_max_withoutMP/compiled_results.xlsx
@@ -616,25 +616,25 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.8138221659621</v>
+        <v>17.81382214929636</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5695516945319341</v>
+        <v>0.5695516939990893</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
       </c>
       <c r="H2" t="n">
-        <v>17.03005393819904</v>
+        <v>10.33377596184603</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5444926971935806</v>
+        <v>0.3303962257593862</v>
       </c>
       <c r="J2" t="n">
         <v>-13.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9560022425024171</v>
+        <v>0.5800987500177894</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -654,11 +654,11 @@
       </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>17.03005393819904</v>
+        <v>10.33377596184603</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>0.5444926971935806</v>
+        <v>0.3303962257593862</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -687,25 +687,25 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>6.941370065782265</v>
+        <v>6.94137006466926</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3563056215255053</v>
+        <v>0.356305621468374</v>
       </c>
       <c r="G3" t="n">
         <v>-13.21</v>
       </c>
       <c r="H3" t="n">
-        <v>6.503098170437087</v>
+        <v>3.765885265022366</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3338088033774693</v>
+        <v>0.1933056554010884</v>
       </c>
       <c r="J3" t="n">
         <v>-13.21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9368608947237009</v>
+        <v>0.5425276609570595</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -725,11 +725,11 @@
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>6.503098170437087</v>
+        <v>3.765885265022366</v>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>0.3338088033774693</v>
+        <v>0.1933056554010884</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
@@ -758,25 +758,25 @@
         <v>90.08</v>
       </c>
       <c r="E4" t="n">
-        <v>20.06614450050855</v>
+        <v>20.06614449001378</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7595227111546687</v>
+        <v>0.7595227107574315</v>
       </c>
       <c r="G4" t="n">
         <v>-13.21</v>
       </c>
       <c r="H4" t="n">
-        <v>15.22378166356998</v>
+        <v>4.789907146774331</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5762346584740462</v>
+        <v>0.1813025547685536</v>
       </c>
       <c r="J4" t="n">
         <v>-13.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7586799578356547</v>
+        <v>0.2387059033267751</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -796,11 +796,11 @@
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>15.22378166356998</v>
+        <v>4.789907146774331</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>0.5762346584740462</v>
+        <v>0.1813025547685536</v>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
@@ -829,25 +829,25 @@
         <v>90.08</v>
       </c>
       <c r="E5" t="n">
-        <v>22.34089255192158</v>
+        <v>22.34089253733244</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8456240948638927</v>
+        <v>0.8456240943116801</v>
       </c>
       <c r="G5" t="n">
         <v>-13.21</v>
       </c>
       <c r="H5" t="n">
-        <v>20.4935941299499</v>
+        <v>8.273785303551145</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7757020873884602</v>
+        <v>0.3131706663980993</v>
       </c>
       <c r="J5" t="n">
         <v>-13.21</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9173131325134642</v>
+        <v>0.3703426481160208</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -867,11 +867,11 @@
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>20.4935941299499</v>
+        <v>8.273785303551145</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>0.7757020873884602</v>
+        <v>0.3131706663980993</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
@@ -900,25 +900,25 @@
         <v>90.08</v>
       </c>
       <c r="E6" t="n">
-        <v>20.06614450050855</v>
+        <v>20.06614449001378</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7595227111546687</v>
+        <v>0.7595227107574315</v>
       </c>
       <c r="G6" t="n">
         <v>-13.21</v>
       </c>
       <c r="H6" t="n">
-        <v>15.22378166356998</v>
+        <v>4.789907146774331</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5762346584740462</v>
+        <v>0.1813025547685536</v>
       </c>
       <c r="J6" t="n">
         <v>-13.21</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7586799578356547</v>
+        <v>0.2387059033267751</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -938,11 +938,11 @@
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>15.22378166356998</v>
+        <v>4.789907146774331</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>0.5762346584740462</v>
+        <v>0.1813025547685536</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
@@ -971,25 +971,25 @@
         <v>90.08</v>
       </c>
       <c r="E7" t="n">
-        <v>22.34089255192158</v>
+        <v>22.34089253733244</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8456240948638927</v>
+        <v>0.8456240943116801</v>
       </c>
       <c r="G7" t="n">
         <v>-13.21</v>
       </c>
       <c r="H7" t="n">
-        <v>20.4935941299499</v>
+        <v>8.273785303551145</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7757020873884602</v>
+        <v>0.3131706663980993</v>
       </c>
       <c r="J7" t="n">
         <v>-13.21</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9173131325134642</v>
+        <v>0.3703426481160208</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -1009,11 +1009,11 @@
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>20.4935941299499</v>
+        <v>8.273785303551145</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>0.7757020873884602</v>
+        <v>0.3131706663980993</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1042,25 +1042,25 @@
         <v>137.11</v>
       </c>
       <c r="E8" t="n">
-        <v>9.055951953675855</v>
+        <v>9.055951945825333</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5217370668225551</v>
+        <v>0.521737066370266</v>
       </c>
       <c r="G8" t="n">
         <v>-13.21</v>
       </c>
       <c r="H8" t="n">
-        <v>7.956152383411257</v>
+        <v>3.201830994039559</v>
       </c>
       <c r="I8" t="n">
-        <v>0.458374738398358</v>
+        <v>0.1844658540412944</v>
       </c>
       <c r="J8" t="n">
         <v>-13.21</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8785550568410221</v>
+        <v>0.3535609523099952</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -1080,11 +1080,11 @@
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>7.956152383411257</v>
+        <v>3.201830994039559</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>0.458374738398358</v>
+        <v>0.1844658540412944</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
@@ -1113,25 +1113,25 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697658781199</v>
+        <v>2.844697657836357</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995812806286</v>
+        <v>0.2800995811875959</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
       </c>
       <c r="H9" t="n">
-        <v>2.398459109383042</v>
+        <v>1.268691931624992</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2361612631075644</v>
+        <v>0.1249201572354529</v>
       </c>
       <c r="J9" t="n">
         <v>-13.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8431332243619357</v>
+        <v>0.445984805495971</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1151,11 +1151,11 @@
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>2.398459109383042</v>
+        <v>1.268691931624992</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>0.2361612631075644</v>
+        <v>0.1249201572354529</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
@@ -1184,25 +1184,25 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>12.8944378515529</v>
+        <v>12.89443785011522</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4882834990656963</v>
+        <v>0.4882834990112545</v>
       </c>
       <c r="G10" t="n">
         <v>-13.21</v>
       </c>
       <c r="H10" t="n">
-        <v>12.31090878407757</v>
+        <v>12.86101832859688</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4661865594275652</v>
+        <v>0.48701797653622</v>
       </c>
       <c r="J10" t="n">
         <v>-13.21</v>
       </c>
       <c r="K10" t="n">
-        <v>0.95474567606644</v>
+        <v>0.9974082219087946</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1222,11 +1222,11 @@
       </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>12.31090878407757</v>
+        <v>12.86101832859688</v>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>0.4661865594275652</v>
+        <v>0.48701797653622</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
@@ -1255,25 +1255,25 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>11.1978729796163</v>
+        <v>11.19787297467806</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3487541620918865</v>
+        <v>0.3487541619380868</v>
       </c>
       <c r="G11" t="n">
         <v>-13.21</v>
       </c>
       <c r="H11" t="n">
-        <v>10.06059178759377</v>
+        <v>8.787635674310453</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3133339041635572</v>
+        <v>0.2736880943319939</v>
       </c>
       <c r="J11" t="n">
         <v>-13.21</v>
       </c>
       <c r="K11" t="n">
-        <v>0.898437748481989</v>
+        <v>0.7847593640490544</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1293,11 +1293,11 @@
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>10.06059178759377</v>
+        <v>8.787635674310453</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>0.3133339041635572</v>
+        <v>0.2736880943319939</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
@@ -1326,25 +1326,25 @@
         <v>146.1</v>
       </c>
       <c r="E12" t="n">
-        <v>12.48937108880212</v>
+        <v>12.48937108880217</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7667243171293724</v>
+        <v>0.7667243171293756</v>
       </c>
       <c r="G12" t="n">
         <v>-13.21</v>
       </c>
       <c r="H12" t="n">
-        <v>11.49508371910139</v>
+        <v>4.983742289914067</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7056848701353072</v>
+        <v>0.3059526678176101</v>
       </c>
       <c r="J12" t="n">
         <v>-13.21</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9203893164330593</v>
+        <v>0.3990386909379636</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1364,11 +1364,11 @@
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>11.49508371910139</v>
+        <v>4.983742289914067</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>0.7056848701353072</v>
+        <v>0.3059526678176101</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
@@ -1397,25 +1397,25 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>7.096204244674719</v>
+        <v>7.096204240677997</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4864762434751352</v>
+        <v>0.4864762432011422</v>
       </c>
       <c r="G13" t="n">
         <v>-13.21</v>
       </c>
       <c r="H13" t="n">
-        <v>6.448760769918064</v>
+        <v>3.08763752503665</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4420911245295426</v>
+        <v>0.211671233324478</v>
       </c>
       <c r="J13" t="n">
         <v>-13.21</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9087620011441294</v>
+        <v>0.4351111411558873</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1435,11 +1435,11 @@
       </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>6.448760769918064</v>
+        <v>3.08763752503665</v>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>0.4420911245295426</v>
+        <v>0.211671233324478</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
@@ -1468,25 +1468,25 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>2.76196014519293</v>
+        <v>2.761960143974937</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2975663925932656</v>
+        <v>0.2975663924620421</v>
       </c>
       <c r="G14" t="n">
         <v>-13.21</v>
       </c>
       <c r="H14" t="n">
-        <v>2.125096075944671</v>
+        <v>0.716460988511289</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2289523164675456</v>
+        <v>0.07718964089911483</v>
       </c>
       <c r="J14" t="n">
         <v>-13.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7694159090757724</v>
+        <v>0.259403087359609</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1506,11 +1506,11 @@
       </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="n">
-        <v>2.125096075944671</v>
+        <v>0.716460988511289</v>
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
-        <v>0.2289523164675456</v>
+        <v>0.07718964089911483</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
@@ -1539,25 +1539,25 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>2.677177423438271</v>
+        <v>2.677177422360339</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2727280963018923</v>
+        <v>0.2727280961920816</v>
       </c>
       <c r="G15" t="n">
         <v>-13.21</v>
       </c>
       <c r="H15" t="n">
-        <v>2.097690532032536</v>
+        <v>0.7283461481432379</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2136948938920141</v>
+        <v>0.07419771909506445</v>
       </c>
       <c r="J15" t="n">
         <v>-13.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7835455781404632</v>
+        <v>0.2720574819061077</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1577,11 +1577,11 @@
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>2.097690532032536</v>
+        <v>0.7283461481432379</v>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>0.2136948938920141</v>
+        <v>0.07419771909506445</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
@@ -1610,25 +1610,25 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>12.52385380260007</v>
+        <v>12.52385380260009</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3900514094987295</v>
+        <v>0.39005140949873</v>
       </c>
       <c r="G16" t="n">
         <v>-13.21</v>
       </c>
       <c r="H16" t="n">
-        <v>11.8302192595611</v>
+        <v>12.3642424889837</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3684483841477635</v>
+        <v>0.385080366333479</v>
       </c>
       <c r="J16" t="n">
         <v>-13.21</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9446149281226062</v>
+        <v>0.9872554154550053</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1648,11 +1648,11 @@
       </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="n">
-        <v>11.8302192595611</v>
+        <v>12.3642424889837</v>
       </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
-        <v>0.3684483841477635</v>
+        <v>0.385080366333479</v>
       </c>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
@@ -1681,25 +1681,25 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>24.24659127198081</v>
+        <v>24.24659125876742</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9074664874911968</v>
+        <v>0.9074664869966653</v>
       </c>
       <c r="G17" t="n">
         <v>-13.21</v>
       </c>
       <c r="H17" t="n">
-        <v>23.15800090048398</v>
+        <v>21.15294223104609</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8667242953348701</v>
+        <v>0.7916818480251235</v>
       </c>
       <c r="J17" t="n">
         <v>-13.21</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9551033644570571</v>
+        <v>0.872408909165626</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1719,11 +1719,11 @@
       </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="n">
-        <v>23.15800090048398</v>
+        <v>21.15294223104609</v>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
-        <v>0.8667242953348701</v>
+        <v>0.7916818480251235</v>
       </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
@@ -1752,25 +1752,25 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>10.42241535589292</v>
+        <v>10.42241535083183</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6135132742837609</v>
+        <v>0.6135132739858409</v>
       </c>
       <c r="G18" t="n">
         <v>-13.21</v>
       </c>
       <c r="H18" t="n">
-        <v>9.619565848243479</v>
+        <v>4.807363077610548</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5662537079187897</v>
+        <v>0.2829844102066129</v>
       </c>
       <c r="J18" t="n">
         <v>-13.21</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9229689587073012</v>
+        <v>0.4612523024451201</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1790,11 +1790,11 @@
       </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>9.619565848243479</v>
+        <v>4.807363077610548</v>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
-        <v>0.5662537079187897</v>
+        <v>0.2829844102066129</v>
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
@@ -1823,25 +1823,25 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969093041860369</v>
+        <v>3.969093040440947</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540541189672314</v>
+        <v>0.4540541188048531</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
       </c>
       <c r="H19" t="n">
-        <v>3.183054426087371</v>
+        <v>1.076926979514537</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3641333064806223</v>
+        <v>0.1231976992523011</v>
       </c>
       <c r="J19" t="n">
         <v>-13.21</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8019601436693529</v>
+        <v>0.2713282275174118</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1861,11 +1861,11 @@
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
-        <v>3.183054426087371</v>
+        <v>1.076926979514537</v>
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
-        <v>0.3641333064806223</v>
+        <v>0.1231976992523011</v>
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
@@ -1894,10 +1894,10 @@
         <v>268.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09996363129559631</v>
+        <v>0.09996363102997334</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2355252494907961</v>
+        <v>0.2355252488649593</v>
       </c>
       <c r="G20" t="n">
         <v>-0.332925</v>
@@ -1973,10 +1973,10 @@
         <v>242.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1141673731007368</v>
+        <v>0.114167372765945</v>
       </c>
       <c r="F21" t="n">
-        <v>0.242883181049906</v>
+        <v>0.2428831803376595</v>
       </c>
       <c r="G21" t="n">
         <v>-0.332925</v>
@@ -2048,25 +2048,25 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>12.48937108880207</v>
+        <v>12.48937108880214</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5410628137990281</v>
+        <v>0.5410628137990309</v>
       </c>
       <c r="G22" t="n">
         <v>-13.21</v>
       </c>
       <c r="H22" t="n">
-        <v>11.37822043193668</v>
+        <v>4.768756988393707</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4929256981121332</v>
+        <v>0.2065914333170446</v>
       </c>
       <c r="J22" t="n">
         <v>-13.21</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9110322970656509</v>
+        <v>0.3818252299885087</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
@@ -2086,11 +2086,11 @@
       </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>11.37822043193668</v>
+        <v>4.768756988393707</v>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
-        <v>0.4929256981121332</v>
+        <v>0.2065914333170446</v>
       </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
@@ -2119,25 +2119,25 @@
         <v>329.4</v>
       </c>
       <c r="E23" t="n">
-        <v>2.511143879318773</v>
+        <v>2.511143877685606</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3475710880865164</v>
+        <v>0.3475710878604674</v>
       </c>
       <c r="G23" t="n">
         <v>-13.21</v>
       </c>
       <c r="H23" t="n">
-        <v>1.612900652995342</v>
+        <v>0.491953794688782</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2232439325974119</v>
+        <v>0.06809204248171426</v>
       </c>
       <c r="J23" t="n">
         <v>-13.21</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6422971882570471</v>
+        <v>0.1959082468592723</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2157,11 +2157,11 @@
       </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="n">
-        <v>1.612900652995342</v>
+        <v>0.491953794688782</v>
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
-        <v>0.2232439325974119</v>
+        <v>0.06809204248171426</v>
       </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
@@ -2190,25 +2190,25 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>3.969093042542851</v>
+        <v>3.969093040440451</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3806549573219487</v>
+        <v>0.3806549571203185</v>
       </c>
       <c r="G24" t="n">
         <v>-13.21</v>
       </c>
       <c r="H24" t="n">
-        <v>3.183054425983536</v>
+        <v>1.076921922608241</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3052701041999122</v>
+        <v>0.1032819498297476</v>
       </c>
       <c r="J24" t="n">
         <v>-13.21</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8019601435052957</v>
+        <v>0.2713269534464565</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -2228,11 +2228,11 @@
       </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="n">
-        <v>3.183054425983536</v>
+        <v>1.076921922608241</v>
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
-        <v>0.3052701041999122</v>
+        <v>0.1032819498297476</v>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
@@ -2261,25 +2261,25 @@
         <v>246.3</v>
       </c>
       <c r="E25" t="n">
-        <v>2.957467003591014</v>
+        <v>2.957467002868275</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3060784627519413</v>
+        <v>0.3060784626771426</v>
       </c>
       <c r="G25" t="n">
         <v>-13.21</v>
       </c>
       <c r="H25" t="n">
-        <v>2.49126643275709</v>
+        <v>1.323884235524466</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2578297573964248</v>
+        <v>0.1370133466168315</v>
       </c>
       <c r="J25" t="n">
         <v>-13.21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8423649121806416</v>
+        <v>0.4476412532212557</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -2299,11 +2299,11 @@
       </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="n">
-        <v>2.49126643275709</v>
+        <v>1.323884235524466</v>
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
-        <v>0.2578297573964248</v>
+        <v>0.1370133466168315</v>
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
@@ -2332,25 +2332,25 @@
         <v>174.15</v>
       </c>
       <c r="E26" t="n">
-        <v>9.725652210493044</v>
+        <v>9.725652204072677</v>
       </c>
       <c r="F26" t="n">
-        <v>0.711689675683952</v>
+        <v>0.7116896752141317</v>
       </c>
       <c r="G26" t="n">
         <v>-13.21</v>
       </c>
       <c r="H26" t="n">
-        <v>9.021226749399331</v>
+        <v>4.563412132168279</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6601422506785201</v>
+        <v>0.3339347562573811</v>
       </c>
       <c r="J26" t="n">
         <v>-13.21</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9275703628046963</v>
+        <v>0.4692139957726764</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2370,11 +2370,11 @@
       </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="n">
-        <v>9.021226749399331</v>
+        <v>4.563412132168279</v>
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
-        <v>0.6601422506785201</v>
+        <v>0.3339347562573811</v>
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
@@ -2403,10 +2403,10 @@
         <v>270.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1013955796569955</v>
+        <v>0.1013955793602133</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2406785854081312</v>
+        <v>0.2406785847036712</v>
       </c>
       <c r="G27" t="n">
         <v>-0.332925</v>
@@ -2478,25 +2478,25 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>6.766253893937488</v>
+        <v>6.766253892867832</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2961120057517942</v>
+        <v>0.2961120057049828</v>
       </c>
       <c r="G28" t="n">
         <v>-13.21</v>
       </c>
       <c r="H28" t="n">
-        <v>6.182032002992508</v>
+        <v>2.989832425770465</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2705446654415486</v>
+        <v>0.1308442293674332</v>
       </c>
       <c r="J28" t="n">
         <v>-13.21</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9136565224860334</v>
+        <v>0.4418741113043342</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="n">
-        <v>6.182032002992508</v>
+        <v>2.989832425770465</v>
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
-        <v>0.2705446654415486</v>
+        <v>0.1308442293674332</v>
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
@@ -2549,25 +2549,25 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1308423264807957</v>
+        <v>0.1308423263315017</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2719810760859471</v>
+        <v>0.2719810757756105</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
       </c>
       <c r="H29" t="n">
-        <v>0.125037675289547</v>
+        <v>0.059079127950144</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2599149861610547</v>
+        <v>0.122807391356328</v>
       </c>
       <c r="J29" t="n">
         <v>-2.201133727157571</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9556362887501794</v>
+        <v>0.4515291771904247</v>
       </c>
       <c r="L29" t="n">
         <v>0.129384</v>
@@ -2603,11 +2603,11 @@
       </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
-        <v>0.125037675289547</v>
+        <v>0.059079127950144</v>
       </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
-        <v>0.2599149861610547</v>
+        <v>0.122807391356328</v>
       </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="n">
@@ -2644,10 +2644,10 @@
         <v>126.11004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007105612026366954</v>
+        <v>0.007105612027473721</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06718413989473716</v>
+        <v>0.06718413990520174</v>
       </c>
       <c r="G30" t="n">
         <v>-0.078476895921783</v>

--- a/application/output_max_withoutMP/compiled_results.xlsx
+++ b/application/output_max_withoutMP/compiled_results.xlsx
@@ -616,25 +616,25 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382214929636</v>
+        <v>17.81382211868636</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5695516939990893</v>
+        <v>0.5695516930204122</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
       </c>
       <c r="H2" t="n">
-        <v>10.33377596184603</v>
+        <v>10.33377596184747</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3303962257593862</v>
+        <v>0.3303962257594323</v>
       </c>
       <c r="J2" t="n">
         <v>-13.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5800987500177894</v>
+        <v>0.5800987510146708</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -654,11 +654,11 @@
       </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>10.33377596184603</v>
+        <v>10.33377596184747</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>0.3303962257593862</v>
+        <v>0.3303962257594323</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -687,27 +687,29 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>6.94137006466926</v>
+        <v>2.555301938109797</v>
       </c>
       <c r="F3" t="n">
-        <v>0.356305621468374</v>
+        <v>0.3122195099690078</v>
       </c>
       <c r="G3" t="n">
-        <v>-13.21</v>
+        <v>-5.549610203628807</v>
       </c>
       <c r="H3" t="n">
-        <v>3.765885265022366</v>
+        <v>3.765850237785174</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1933056554010884</v>
+        <v>0.1933038574272878</v>
       </c>
       <c r="J3" t="n">
         <v>-13.21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5425276609570595</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>0.6191280533573189</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.08</v>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -725,11 +727,11 @@
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>3.765885265022366</v>
+        <v>3.765850237785174</v>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>0.1933056554010884</v>
+        <v>0.1933038574272878</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
@@ -758,27 +760,29 @@
         <v>90.08</v>
       </c>
       <c r="E4" t="n">
-        <v>20.06614449001378</v>
+        <v>7.37994235935547</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7595227107574315</v>
+        <v>0.665423610156116</v>
       </c>
       <c r="G4" t="n">
-        <v>-13.21</v>
+        <v>-5.545419566893607</v>
       </c>
       <c r="H4" t="n">
-        <v>4.789907146774331</v>
+        <v>4.789896768113398</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1813025547685536</v>
+        <v>0.1813021619263368</v>
       </c>
       <c r="J4" t="n">
         <v>-13.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2387059033267751</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+        <v>0.2724612700228674</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.13</v>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -796,11 +800,11 @@
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>4.789907146774331</v>
+        <v>4.789896768113398</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>0.1813025547685536</v>
+        <v>0.1813021619263368</v>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
@@ -829,27 +833,29 @@
         <v>90.08</v>
       </c>
       <c r="E5" t="n">
-        <v>22.34089253733244</v>
+        <v>8.294245459149197</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8456240943116801</v>
+        <v>0.7479521117530136</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.21</v>
+        <v>-5.544759808667547</v>
       </c>
       <c r="H5" t="n">
-        <v>8.273785303551145</v>
+        <v>8.273785303549536</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3131706663980993</v>
+        <v>0.3131706663980384</v>
       </c>
       <c r="J5" t="n">
         <v>-13.21</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3703426481160208</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>0.418704167655927</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.14</v>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -867,11 +873,11 @@
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>8.273785303551145</v>
+        <v>8.273785303549536</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>0.3131706663980993</v>
+        <v>0.3131706663980384</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
@@ -900,27 +906,29 @@
         <v>90.08</v>
       </c>
       <c r="E6" t="n">
-        <v>20.06614449001378</v>
+        <v>7.37994235935547</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7595227107574315</v>
+        <v>0.665423610156116</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.21</v>
+        <v>-5.545419566893607</v>
       </c>
       <c r="H6" t="n">
-        <v>4.789907146774331</v>
+        <v>4.789896768113398</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1813025547685536</v>
+        <v>0.1813021619263368</v>
       </c>
       <c r="J6" t="n">
         <v>-13.21</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2387059033267751</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>0.2724612700228674</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.13</v>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -938,11 +946,11 @@
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>4.789907146774331</v>
+        <v>4.789896768113398</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>0.1813025547685536</v>
+        <v>0.1813021619263368</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
@@ -971,27 +979,29 @@
         <v>90.08</v>
       </c>
       <c r="E7" t="n">
-        <v>22.34089253733244</v>
+        <v>8.294245459149197</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8456240943116801</v>
+        <v>0.7479521117530136</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.21</v>
+        <v>-5.544759808667547</v>
       </c>
       <c r="H7" t="n">
-        <v>8.273785303551145</v>
+        <v>8.273785303549536</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3131706663980993</v>
+        <v>0.3131706663980384</v>
       </c>
       <c r="J7" t="n">
         <v>-13.21</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3703426481160208</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>0.418704167655927</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.14</v>
+      </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -1009,11 +1019,11 @@
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>8.273785303551145</v>
+        <v>8.273785303549536</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>0.3131706663980993</v>
+        <v>0.3131706663980384</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1042,27 +1052,29 @@
         <v>137.11</v>
       </c>
       <c r="E8" t="n">
-        <v>9.055951945825333</v>
+        <v>3.354728528907292</v>
       </c>
       <c r="F8" t="n">
-        <v>0.521737066370266</v>
+        <v>0.4600748684385398</v>
       </c>
       <c r="G8" t="n">
-        <v>-13.21</v>
+        <v>-5.549441423005486</v>
       </c>
       <c r="H8" t="n">
-        <v>3.201830994039559</v>
+        <v>3.201847249820655</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1844658540412944</v>
+        <v>0.1844667905793405</v>
       </c>
       <c r="J8" t="n">
         <v>-13.21</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3535609523099952</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
+        <v>0.4009495045999952</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1080,11 +1092,11 @@
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>3.201830994039559</v>
+        <v>3.201847249820655</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>0.1844658540412944</v>
+        <v>0.1844667905793405</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
@@ -1113,25 +1125,25 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697657836357</v>
+        <v>2.844697655376507</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995811875959</v>
+        <v>0.2800995809453898</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
       </c>
       <c r="H9" t="n">
-        <v>1.268691931624992</v>
+        <v>1.26871546942082</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1249201572354529</v>
+        <v>0.1249224748549494</v>
       </c>
       <c r="J9" t="n">
         <v>-13.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.445984805495971</v>
+        <v>0.445993080151395</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1151,11 +1163,11 @@
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>1.268691931624992</v>
+        <v>1.26871546942082</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>0.1249201572354529</v>
+        <v>0.1249224748549494</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
@@ -1184,27 +1196,29 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>12.89443785011522</v>
+        <v>5.008732116108107</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4882834990112545</v>
+        <v>0.4516357717891071</v>
       </c>
       <c r="G10" t="n">
-        <v>-13.21</v>
+        <v>-5.547686668594033</v>
       </c>
       <c r="H10" t="n">
-        <v>12.86101832859688</v>
+        <v>12.86101832859704</v>
       </c>
       <c r="I10" t="n">
-        <v>0.48701797653622</v>
+        <v>0.4870179765362261</v>
       </c>
       <c r="J10" t="n">
         <v>-13.21</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9974082219087946</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+        <v>1.078342343448474</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.11</v>
+      </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1222,11 +1236,11 @@
       </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>12.86101832859688</v>
+        <v>12.86101832859704</v>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>0.48701797653622</v>
+        <v>0.4870179765362261</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
@@ -1255,27 +1269,29 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>11.19787297467806</v>
+        <v>4.161856555785656</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3487541619380868</v>
+        <v>0.3085281699142969</v>
       </c>
       <c r="G11" t="n">
-        <v>-13.21</v>
+        <v>-5.549820853803196</v>
       </c>
       <c r="H11" t="n">
-        <v>8.787635674310453</v>
+        <v>8.7876356743113</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2736880943319939</v>
+        <v>0.2736880943320203</v>
       </c>
       <c r="J11" t="n">
         <v>-13.21</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7847593640490544</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
+        <v>0.8870765168964814</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.04</v>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1293,11 +1309,11 @@
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>8.787635674310453</v>
+        <v>8.7876356743113</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>0.2736880943319939</v>
+        <v>0.2736880943320203</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
@@ -1326,25 +1342,25 @@
         <v>146.1</v>
       </c>
       <c r="E12" t="n">
-        <v>12.48937108880217</v>
+        <v>12.48937108880216</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7667243171293756</v>
+        <v>0.7667243171293748</v>
       </c>
       <c r="G12" t="n">
         <v>-13.21</v>
       </c>
       <c r="H12" t="n">
-        <v>4.983742289914067</v>
+        <v>4.983742289914098</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3059526678176101</v>
+        <v>0.305952667817612</v>
       </c>
       <c r="J12" t="n">
         <v>-13.21</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3990386909379636</v>
+        <v>0.3990386909379665</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1364,11 +1380,11 @@
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>4.983742289914067</v>
+        <v>4.983742289914098</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>0.3059526678176101</v>
+        <v>0.305952667817612</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
@@ -1397,27 +1413,29 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>7.096204240677997</v>
+        <v>2.611823931690337</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4864762432011422</v>
+        <v>0.4262860820839183</v>
       </c>
       <c r="G13" t="n">
-        <v>-13.21</v>
+        <v>-5.548570274707735</v>
       </c>
       <c r="H13" t="n">
-        <v>3.08763752503665</v>
+        <v>3.087637525036674</v>
       </c>
       <c r="I13" t="n">
-        <v>0.211671233324478</v>
+        <v>0.2116712333244796</v>
       </c>
       <c r="J13" t="n">
         <v>-13.21</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4351111411558873</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+        <v>0.4965473709338937</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.15</v>
+      </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1435,11 +1453,11 @@
       </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>3.08763752503665</v>
+        <v>3.087637525036674</v>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>0.211671233324478</v>
+        <v>0.2116712333244796</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
@@ -1468,27 +1486,29 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>2.761960143974937</v>
+        <v>1.016994536421393</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2975663924620421</v>
+        <v>0.2607839207207009</v>
       </c>
       <c r="G14" t="n">
-        <v>-13.21</v>
+        <v>-5.550180402242267</v>
       </c>
       <c r="H14" t="n">
-        <v>0.716460988511289</v>
+        <v>0.716460988511275</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07718964089911483</v>
+        <v>0.07718964089911332</v>
       </c>
       <c r="J14" t="n">
         <v>-13.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.259403087359609</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
+        <v>0.2959907983812517</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1</v>
+      </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1506,11 +1526,11 @@
       </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="n">
-        <v>0.716460988511289</v>
+        <v>0.716460988511275</v>
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
-        <v>0.07718964089911483</v>
+        <v>0.07718964089911332</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
@@ -1539,27 +1559,29 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>2.677177422360339</v>
+        <v>0.9874314723701774</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2727280961920816</v>
+        <v>0.2393940680876117</v>
       </c>
       <c r="G15" t="n">
-        <v>-13.21</v>
+        <v>-5.550717505065815</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7283461481432379</v>
+        <v>0.72835282365734</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07419771909506445</v>
+        <v>0.07419839913974022</v>
       </c>
       <c r="J15" t="n">
         <v>-13.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2720574819061077</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
+        <v>0.3099425133315568</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.005</v>
+      </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1577,11 +1599,11 @@
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>0.7283461481432379</v>
+        <v>0.72835282365734</v>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>0.07419771909506445</v>
+        <v>0.07419839913974022</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
@@ -1610,27 +1632,29 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>12.52385380260009</v>
+        <v>4.68640372837228</v>
       </c>
       <c r="F16" t="n">
-        <v>0.39005140949873</v>
+        <v>0.3474539429141642</v>
       </c>
       <c r="G16" t="n">
-        <v>-13.21</v>
+        <v>-5.549184128068436</v>
       </c>
       <c r="H16" t="n">
-        <v>12.3642424889837</v>
+        <v>12.36424248898358</v>
       </c>
       <c r="I16" t="n">
-        <v>0.385080366333479</v>
+        <v>0.3850803663334754</v>
       </c>
       <c r="J16" t="n">
         <v>-13.21</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9872554154550053</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+        <v>1.108291830289019</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.06</v>
+      </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1648,11 +1672,11 @@
       </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="n">
-        <v>12.3642424889837</v>
+        <v>12.36424248898358</v>
       </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
-        <v>0.385080366333479</v>
+        <v>0.3850803663334754</v>
       </c>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
@@ -1681,27 +1705,29 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>24.24659125876742</v>
+        <v>8.860211623681527</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9074664869966653</v>
+        <v>0.7940334091095929</v>
       </c>
       <c r="G17" t="n">
-        <v>-13.21</v>
+        <v>-5.516810175512664</v>
       </c>
       <c r="H17" t="n">
-        <v>21.15294223104609</v>
+        <v>21.15294223104569</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7916818480251235</v>
+        <v>0.7916818480251087</v>
       </c>
       <c r="J17" t="n">
         <v>-13.21</v>
       </c>
       <c r="K17" t="n">
-        <v>0.872408909165626</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
+        <v>0.9970384607782169</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1719,11 +1745,11 @@
       </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="n">
-        <v>21.15294223104609</v>
+        <v>21.15294223104569</v>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
-        <v>0.7916818480251235</v>
+        <v>0.7916818480251087</v>
       </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
@@ -1752,27 +1778,29 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>10.42241535083183</v>
+        <v>3.836460769542606</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6135132739858409</v>
+        <v>0.5375941613289151</v>
       </c>
       <c r="G18" t="n">
-        <v>-13.21</v>
+        <v>-5.549254244910696</v>
       </c>
       <c r="H18" t="n">
-        <v>4.807363077610548</v>
+        <v>4.807363077609868</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2829844102066129</v>
+        <v>0.2829844102065729</v>
       </c>
       <c r="J18" t="n">
         <v>-13.21</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4612523024451201</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
+        <v>0.526390408532423</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1790,11 +1818,11 @@
       </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>4.807363077610548</v>
+        <v>4.807363077609868</v>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
-        <v>0.2829844102066129</v>
+        <v>0.2829844102065729</v>
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
@@ -1823,25 +1851,25 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969093040440947</v>
+        <v>3.969093036182524</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540541188048531</v>
+        <v>0.4540541183177003</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
       </c>
       <c r="H19" t="n">
-        <v>1.076926979514537</v>
+        <v>1.076926979514566</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1231976992523011</v>
+        <v>0.1231976992523044</v>
       </c>
       <c r="J19" t="n">
         <v>-13.21</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2713282275174118</v>
+        <v>0.271328227808526</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1861,11 +1889,11 @@
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
-        <v>1.076926979514537</v>
+        <v>1.076926979514566</v>
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
-        <v>0.1231976992523011</v>
+        <v>0.1231976992523044</v>
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
@@ -1894,10 +1922,10 @@
         <v>268.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09996363102997334</v>
+        <v>0.09996363049204143</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2355252488649593</v>
+        <v>0.2355252475975329</v>
       </c>
       <c r="G20" t="n">
         <v>-0.332925</v>
@@ -1906,12 +1934,8 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>0.0272</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.028</v>
-      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS_AERO_SC_hvd:(0.0133333333333333,1000)</t>
@@ -1973,10 +1997,10 @@
         <v>242.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.114167372765945</v>
+        <v>0.1141673830273931</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2428831803376595</v>
+        <v>0.2428832021681798</v>
       </c>
       <c r="G21" t="n">
         <v>-0.332925</v>
@@ -1985,12 +2009,8 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.006</v>
-      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS_AERO_SC_hvd:(0.0133333333333333,1000)</t>
@@ -2048,27 +2068,29 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>12.48937108880214</v>
+        <v>4.826633115573237</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5410628137990309</v>
+        <v>0.497938311736443</v>
       </c>
       <c r="G22" t="n">
-        <v>-13.21</v>
+        <v>-5.547262026771105</v>
       </c>
       <c r="H22" t="n">
-        <v>4.768756988393707</v>
+        <v>4.768759915832433</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2065914333170446</v>
+        <v>0.2065915601391419</v>
       </c>
       <c r="J22" t="n">
         <v>-13.21</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3818252299885087</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
+        <v>0.414893883980733</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.13</v>
+      </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -2086,11 +2108,11 @@
       </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>4.768756988393707</v>
+        <v>4.768759915832433</v>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
-        <v>0.2065914333170446</v>
+        <v>0.2065915601391419</v>
       </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
@@ -2119,25 +2141,25 @@
         <v>329.4</v>
       </c>
       <c r="E23" t="n">
-        <v>2.511143877685606</v>
+        <v>2.511143874209327</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3475710878604674</v>
+        <v>0.3475710873793104</v>
       </c>
       <c r="G23" t="n">
         <v>-13.21</v>
       </c>
       <c r="H23" t="n">
-        <v>0.491953794688782</v>
+        <v>0.49195678905012</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06809204248171426</v>
+        <v>0.06809245693563581</v>
       </c>
       <c r="J23" t="n">
         <v>-13.21</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1959082468592723</v>
+        <v>0.1959094395596988</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2157,11 +2179,11 @@
       </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="n">
-        <v>0.491953794688782</v>
+        <v>0.49195678905012</v>
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
-        <v>0.06809204248171426</v>
+        <v>0.06809245693563581</v>
       </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
@@ -2190,27 +2212,29 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>3.969093040440451</v>
+        <v>1.465955758988992</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3806549571203185</v>
+        <v>0.3345898405304283</v>
       </c>
       <c r="G24" t="n">
-        <v>-13.21</v>
+        <v>-5.550743282537625</v>
       </c>
       <c r="H24" t="n">
-        <v>1.076921922608241</v>
+        <v>1.076926979514542</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1032819498297476</v>
+        <v>0.1032824348111858</v>
       </c>
       <c r="J24" t="n">
         <v>-13.21</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2713269534464565</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
+        <v>0.3086837145068458</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0002</v>
+      </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2228,11 +2252,11 @@
       </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="n">
-        <v>1.076921922608241</v>
+        <v>1.076926979514542</v>
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
-        <v>0.1032819498297476</v>
+        <v>0.1032824348111858</v>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
@@ -2261,27 +2285,29 @@
         <v>246.3</v>
       </c>
       <c r="E25" t="n">
-        <v>2.957467002868275</v>
+        <v>1.116107087963433</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3060784626771426</v>
+        <v>0.2748980962125347</v>
       </c>
       <c r="G25" t="n">
-        <v>-13.21</v>
+        <v>-5.550726324289703</v>
       </c>
       <c r="H25" t="n">
-        <v>1.323884235524466</v>
+        <v>1.323884560568239</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1370133466168315</v>
+        <v>0.1370133802567328</v>
       </c>
       <c r="J25" t="n">
         <v>-13.21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4476412532212557</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
+        <v>0.4984151659995575</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.003</v>
+      </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2299,11 +2325,11 @@
       </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="n">
-        <v>1.323884235524466</v>
+        <v>1.323884560568239</v>
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
-        <v>0.1370133466168315</v>
+        <v>0.1370133802567328</v>
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
@@ -2332,25 +2358,25 @@
         <v>174.15</v>
       </c>
       <c r="E26" t="n">
-        <v>9.725652204072677</v>
+        <v>9.725652187360838</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7116896752141317</v>
+        <v>0.7116896739912171</v>
       </c>
       <c r="G26" t="n">
         <v>-13.21</v>
       </c>
       <c r="H26" t="n">
-        <v>4.563412132168279</v>
+        <v>4.563412132168618</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3339347562573811</v>
+        <v>0.3339347562574059</v>
       </c>
       <c r="J26" t="n">
         <v>-13.21</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4692139957726764</v>
+        <v>0.4692139965789738</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2370,11 +2396,11 @@
       </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="n">
-        <v>4.563412132168279</v>
+        <v>4.563412132168618</v>
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
-        <v>0.3339347562573811</v>
+        <v>0.3339347562574059</v>
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
@@ -2403,10 +2429,10 @@
         <v>270.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1013955793602133</v>
+        <v>0.1013955788142332</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2406785847036712</v>
+        <v>0.2406785834077004</v>
       </c>
       <c r="G27" t="n">
         <v>-0.332925</v>
@@ -2415,12 +2441,8 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.0092</v>
-      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS_AERO_SC_hvd:(0.0133333333333333,1000)</t>
@@ -2478,27 +2500,29 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>6.766253892867832</v>
+        <v>2.491549780251542</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2961120057049828</v>
+        <v>0.2594955561592948</v>
       </c>
       <c r="G28" t="n">
-        <v>-13.21</v>
+        <v>-5.55073108000964</v>
       </c>
       <c r="H28" t="n">
-        <v>2.989832425770465</v>
+        <v>2.989848416694203</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1308442293674332</v>
+        <v>0.1308449291792606</v>
       </c>
       <c r="J28" t="n">
         <v>-13.21</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4418741113043342</v>
-      </c>
-      <c r="L28" t="inlineStr"/>
+        <v>0.5042280149835772</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.001</v>
+      </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2516,11 +2540,11 @@
       </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="n">
-        <v>2.989832425770465</v>
+        <v>2.989848416694203</v>
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
-        <v>0.1308442293674332</v>
+        <v>0.1308449291792606</v>
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
@@ -2549,32 +2573,30 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1308423263315017</v>
+        <v>0.1308423337395128</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2719810757756105</v>
+        <v>0.2719810911745942</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
       </c>
       <c r="H29" t="n">
-        <v>0.059079127950144</v>
+        <v>0.059078934933109</v>
       </c>
       <c r="I29" t="n">
-        <v>0.122807391356328</v>
+        <v>0.1228069901330977</v>
       </c>
       <c r="J29" t="n">
         <v>-2.201133727157571</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4515291771904247</v>
+        <v>0.451527676437858</v>
       </c>
       <c r="L29" t="n">
-        <v>0.129384</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.1468</v>
-      </c>
+        <v>0.14</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>c_sources:EX_glc__D_e;BIOMASS_AERO_SC_hvd:(0.009615384615,0.14);EX_glc__D_e:(-2.20113372715757,1000);EX_nh4_e:(-0.181824845165991,1000);EX_o2_e:(-26.25403530509562,1000)</t>
@@ -2603,11 +2625,11 @@
       </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
-        <v>0.059079127950144</v>
+        <v>0.059078934933109</v>
       </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
-        <v>0.122807391356328</v>
+        <v>0.1228069901330977</v>
       </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="n">
@@ -2644,10 +2666,10 @@
         <v>126.11004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007105612027473721</v>
+        <v>0.007105612999394498</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06718413990520174</v>
+        <v>0.06718414909479177</v>
       </c>
       <c r="G30" t="n">
         <v>-0.078476895921783</v>
@@ -2656,12 +2678,8 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>0.1145097305125967</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.1208420658404822</v>
-      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>c_sources:EX_xyl__D_e,EX_glc__D_e;EX_xyl__D_e:(-0.0266525306904169,-0.0266525306904169);EX_glc__D_e:(-0.0518243652313661,-0.0518243652313661);BIOMASS_AERO_SC_hvd:(0,0.0138888888888889);BiomassKim_e:(0,0);EX_btn_c:(0,0.02);ATPM_c:(0,1000);EX_4abz_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_thm_e:(-1000,1000);EX_o2_e:(-26.25403530509562,1000)</t>

--- a/application/output_max_withoutMP/compiled_results.xlsx
+++ b/application/output_max_withoutMP/compiled_results.xlsx
@@ -616,25 +616,25 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382211868636</v>
+        <v>17.81382212023962</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5695516930204122</v>
+        <v>0.5695516930700739</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
       </c>
       <c r="H2" t="n">
-        <v>10.33377596184747</v>
+        <v>10.33377596184721</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3303962257594323</v>
+        <v>0.3303962257594239</v>
       </c>
       <c r="J2" t="n">
         <v>-13.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5800987510146708</v>
+        <v>0.5800987509640747</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -654,11 +654,11 @@
       </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>10.33377596184747</v>
+        <v>10.33377596184721</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>0.3303962257594323</v>
+        <v>0.3303962257594239</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -696,16 +696,16 @@
         <v>-5.549610203628807</v>
       </c>
       <c r="H3" t="n">
-        <v>3.765850237785174</v>
+        <v>3.765885265022023</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1933038574272878</v>
+        <v>0.1933056554010707</v>
       </c>
       <c r="J3" t="n">
         <v>-13.21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6191280533573189</v>
+        <v>0.6191338120422361</v>
       </c>
       <c r="L3" t="n">
         <v>0.08</v>
@@ -727,11 +727,11 @@
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>3.765850237785174</v>
+        <v>3.765885265022023</v>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>0.1933038574272878</v>
+        <v>0.1933056554010707</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
@@ -760,25 +760,25 @@
         <v>90.08</v>
       </c>
       <c r="E4" t="n">
-        <v>7.37994235935547</v>
+        <v>7.379942361103544</v>
       </c>
       <c r="F4" t="n">
-        <v>0.665423610156116</v>
+        <v>0.6654236103138855</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.545419566893607</v>
+        <v>-5.545419566892341</v>
       </c>
       <c r="H4" t="n">
-        <v>4.789896768113398</v>
+        <v>4.789907146773598</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1813021619263368</v>
+        <v>0.1813025547685259</v>
       </c>
       <c r="J4" t="n">
         <v>-13.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2724612700228674</v>
+        <v>0.2724618603223352</v>
       </c>
       <c r="L4" t="n">
         <v>0.13</v>
@@ -800,11 +800,11 @@
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>4.789896768113398</v>
+        <v>4.789907146773598</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>0.1813021619263368</v>
+        <v>0.1813025547685259</v>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
@@ -833,25 +833,25 @@
         <v>90.08</v>
       </c>
       <c r="E5" t="n">
-        <v>8.294245459149197</v>
+        <v>8.294244088547805</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7479521117530136</v>
+        <v>0.7479519880225586</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.544759808667547</v>
+        <v>-5.54475980965657</v>
       </c>
       <c r="H5" t="n">
-        <v>8.273785303549536</v>
+        <v>8.273785303549822</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3131706663980384</v>
+        <v>0.3131706663980492</v>
       </c>
       <c r="J5" t="n">
         <v>-13.21</v>
       </c>
       <c r="K5" t="n">
-        <v>0.418704167655927</v>
+        <v>0.4187042369203568</v>
       </c>
       <c r="L5" t="n">
         <v>0.14</v>
@@ -873,11 +873,11 @@
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>8.273785303549536</v>
+        <v>8.273785303549822</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>0.3131706663980384</v>
+        <v>0.3131706663980492</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
@@ -906,25 +906,25 @@
         <v>90.08</v>
       </c>
       <c r="E6" t="n">
-        <v>7.37994235935547</v>
+        <v>7.379942361103544</v>
       </c>
       <c r="F6" t="n">
-        <v>0.665423610156116</v>
+        <v>0.6654236103138855</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.545419566893607</v>
+        <v>-5.545419566892341</v>
       </c>
       <c r="H6" t="n">
-        <v>4.789896768113398</v>
+        <v>4.789907146773598</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1813021619263368</v>
+        <v>0.1813025547685259</v>
       </c>
       <c r="J6" t="n">
         <v>-13.21</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2724612700228674</v>
+        <v>0.2724618603223352</v>
       </c>
       <c r="L6" t="n">
         <v>0.13</v>
@@ -946,11 +946,11 @@
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>4.789896768113398</v>
+        <v>4.789907146773598</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>0.1813021619263368</v>
+        <v>0.1813025547685259</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
@@ -979,25 +979,25 @@
         <v>90.08</v>
       </c>
       <c r="E7" t="n">
-        <v>8.294245459149197</v>
+        <v>8.294244088547805</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7479521117530136</v>
+        <v>0.7479519880225586</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.544759808667547</v>
+        <v>-5.54475980965657</v>
       </c>
       <c r="H7" t="n">
-        <v>8.273785303549536</v>
+        <v>8.273785303549822</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3131706663980384</v>
+        <v>0.3131706663980492</v>
       </c>
       <c r="J7" t="n">
         <v>-13.21</v>
       </c>
       <c r="K7" t="n">
-        <v>0.418704167655927</v>
+        <v>0.4187042369203568</v>
       </c>
       <c r="L7" t="n">
         <v>0.14</v>
@@ -1019,11 +1019,11 @@
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>8.273785303549536</v>
+        <v>8.273785303549822</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>0.3131706663980384</v>
+        <v>0.3131706663980492</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1061,16 +1061,16 @@
         <v>-5.549441423005486</v>
       </c>
       <c r="H8" t="n">
-        <v>3.201847249820655</v>
+        <v>3.201832471428046</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1844667905793405</v>
+        <v>0.1844659391575074</v>
       </c>
       <c r="J8" t="n">
         <v>-13.21</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4009495045999952</v>
+        <v>0.4009476539841684</v>
       </c>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
@@ -1092,11 +1092,11 @@
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>3.201847249820655</v>
+        <v>3.201832471428046</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>0.1844667905793405</v>
+        <v>0.1844659391575074</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
@@ -1134,16 +1134,16 @@
         <v>-13.21</v>
       </c>
       <c r="H9" t="n">
-        <v>1.26871546942082</v>
+        <v>1.268715469421109</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1249224748549494</v>
+        <v>0.1249224748549778</v>
       </c>
       <c r="J9" t="n">
         <v>-13.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.445993080151395</v>
+        <v>0.4459930801514966</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1163,11 +1163,11 @@
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>1.26871546942082</v>
+        <v>1.268715469421109</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>0.1249224748549494</v>
+        <v>0.1249224748549778</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
@@ -1196,13 +1196,13 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>5.008732116108107</v>
+        <v>5.008732115512599</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4516357717891071</v>
+        <v>0.4516357717353797</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.547686668594033</v>
+        <v>-5.547686668594409</v>
       </c>
       <c r="H10" t="n">
         <v>12.86101832859704</v>
@@ -1214,7 +1214,7 @@
         <v>-13.21</v>
       </c>
       <c r="K10" t="n">
-        <v>1.078342343448474</v>
+        <v>1.078342343576756</v>
       </c>
       <c r="L10" t="n">
         <v>0.11</v>
@@ -1269,25 +1269,25 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>4.161856555785656</v>
+        <v>4.161856555786007</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3085281699142969</v>
+        <v>0.308528169914323</v>
       </c>
       <c r="G11" t="n">
         <v>-5.549820853803196</v>
       </c>
       <c r="H11" t="n">
-        <v>8.7876356743113</v>
+        <v>8.787635674310746</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2736880943320203</v>
+        <v>0.2736880943320031</v>
       </c>
       <c r="J11" t="n">
         <v>-13.21</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8870765168964814</v>
+        <v>0.8870765168963507</v>
       </c>
       <c r="L11" t="n">
         <v>0.04</v>
@@ -1309,11 +1309,11 @@
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>8.7876356743113</v>
+        <v>8.787635674310746</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>0.2736880943320203</v>
+        <v>0.2736880943320031</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
@@ -1351,16 +1351,16 @@
         <v>-13.21</v>
       </c>
       <c r="H12" t="n">
-        <v>4.983742289914098</v>
+        <v>4.983742289914693</v>
       </c>
       <c r="I12" t="n">
-        <v>0.305952667817612</v>
+        <v>0.3059526678176485</v>
       </c>
       <c r="J12" t="n">
         <v>-13.21</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3990386909379665</v>
+        <v>0.3990386909380141</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1380,11 +1380,11 @@
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>4.983742289914098</v>
+        <v>4.983742289914693</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>0.305952667817612</v>
+        <v>0.3059526678176485</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
@@ -1413,25 +1413,25 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>2.611823931690337</v>
+        <v>2.611823931661305</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4262860820839183</v>
+        <v>0.4262860820791775</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.548570274707735</v>
+        <v>-5.548570274707767</v>
       </c>
       <c r="H13" t="n">
-        <v>3.087637525036674</v>
+        <v>3.087637525036586</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2116712333244796</v>
+        <v>0.2116712333244736</v>
       </c>
       <c r="J13" t="n">
         <v>-13.21</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4965473709338937</v>
+        <v>0.4965473709394017</v>
       </c>
       <c r="L13" t="n">
         <v>0.15</v>
@@ -1453,11 +1453,11 @@
       </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>3.087637525036674</v>
+        <v>3.087637525036586</v>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>0.2116712333244796</v>
+        <v>0.2116712333244736</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
@@ -1495,16 +1495,16 @@
         <v>-5.550180402242267</v>
       </c>
       <c r="H14" t="n">
-        <v>0.716460988511275</v>
+        <v>0.716460988511337</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07718964089911332</v>
+        <v>0.07718964089911999</v>
       </c>
       <c r="J14" t="n">
         <v>-13.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2959907983812517</v>
+        <v>0.2959907983812773</v>
       </c>
       <c r="L14" t="n">
         <v>0.1</v>
@@ -1526,11 +1526,11 @@
       </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="n">
-        <v>0.716460988511275</v>
+        <v>0.716460988511337</v>
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
-        <v>0.07718964089911332</v>
+        <v>0.07718964089911999</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
@@ -1568,16 +1568,16 @@
         <v>-5.550717505065815</v>
       </c>
       <c r="H15" t="n">
-        <v>0.72835282365734</v>
+        <v>0.728351265847033</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07419839913974022</v>
+        <v>0.07419824044325798</v>
       </c>
       <c r="J15" t="n">
         <v>-13.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3099425133315568</v>
+        <v>0.309941850422557</v>
       </c>
       <c r="L15" t="n">
         <v>0.005</v>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>0.72835282365734</v>
+        <v>0.728351265847033</v>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>0.07419839913974022</v>
+        <v>0.07419824044325798</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
@@ -1641,16 +1641,16 @@
         <v>-5.549184128068436</v>
       </c>
       <c r="H16" t="n">
-        <v>12.36424248898358</v>
+        <v>12.36424248898357</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3850803663334754</v>
+        <v>0.3850803663334749</v>
       </c>
       <c r="J16" t="n">
         <v>-13.21</v>
       </c>
       <c r="K16" t="n">
-        <v>1.108291830289019</v>
+        <v>1.108291830289018</v>
       </c>
       <c r="L16" t="n">
         <v>0.06</v>
@@ -1672,11 +1672,11 @@
       </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="n">
-        <v>12.36424248898358</v>
+        <v>12.36424248898357</v>
       </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
-        <v>0.3850803663334754</v>
+        <v>0.3850803663334749</v>
       </c>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
@@ -1705,25 +1705,25 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>8.860211623681527</v>
+        <v>8.860211570646928</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7940334091095929</v>
+        <v>0.7940334043275107</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.516810175512664</v>
+        <v>-5.516810175715775</v>
       </c>
       <c r="H17" t="n">
-        <v>21.15294223104569</v>
+        <v>21.15294223104726</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7916818480251087</v>
+        <v>0.7916818480251674</v>
       </c>
       <c r="J17" t="n">
         <v>-13.21</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9970384607782169</v>
+        <v>0.9970384667829751</v>
       </c>
       <c r="L17" t="n">
         <v>0.6899999999999999</v>
@@ -1745,11 +1745,11 @@
       </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="n">
-        <v>21.15294223104569</v>
+        <v>21.15294223104726</v>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
-        <v>0.7916818480251087</v>
+        <v>0.7916818480251674</v>
       </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
@@ -1778,25 +1778,25 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>3.836460769542606</v>
+        <v>3.836460770451315</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5375941613289151</v>
+        <v>0.5375941614562846</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.549254244910696</v>
+        <v>-5.549254244910345</v>
       </c>
       <c r="H18" t="n">
-        <v>4.807363077609868</v>
+        <v>4.807363077610059</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2829844102065729</v>
+        <v>0.2829844102065842</v>
       </c>
       <c r="J18" t="n">
         <v>-13.21</v>
       </c>
       <c r="K18" t="n">
-        <v>0.526390408532423</v>
+        <v>0.526390408407729</v>
       </c>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
@@ -1818,11 +1818,11 @@
       </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>4.807363077609868</v>
+        <v>4.807363077610059</v>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
-        <v>0.2829844102065729</v>
+        <v>0.2829844102065842</v>
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
@@ -1851,25 +1851,25 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969093036182524</v>
+        <v>3.969093042076502</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540541183177003</v>
+        <v>0.4540541189919563</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
       </c>
       <c r="H19" t="n">
-        <v>1.076926979514566</v>
+        <v>1.076923189865303</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1231976992523044</v>
+        <v>0.123197265726096</v>
       </c>
       <c r="J19" t="n">
         <v>-13.21</v>
       </c>
       <c r="K19" t="n">
-        <v>0.271328227808526</v>
+        <v>0.271327272615885</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1889,11 +1889,11 @@
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
-        <v>1.076926979514566</v>
+        <v>1.076923189865303</v>
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
-        <v>0.1231976992523044</v>
+        <v>0.123197265726096</v>
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
@@ -1922,18 +1922,26 @@
         <v>268.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09996363049204143</v>
+        <v>0.09996363049204202</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2355252475975329</v>
+        <v>0.2355252475975343</v>
       </c>
       <c r="G20" t="n">
         <v>-0.332925</v>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>0.100790276286722</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2374729155094452</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.332925</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.008269465510717</v>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
@@ -1963,19 +1971,35 @@
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>-0.332925</v>
+      </c>
       <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="Y20" t="n">
+        <v>0.100790276286722</v>
+      </c>
       <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
+      <c r="AA20" t="n">
+        <v>0.2374729155094452</v>
+      </c>
       <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>0.077778472956246</v>
+      </c>
       <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
+      <c r="AE20" t="n">
+        <v>0.074424857480135</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.17825929777753</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2005,10 +2029,18 @@
       <c r="G21" t="n">
         <v>-0.332925</v>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>0.115079869491406</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.2448244539376226</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.332925</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.007992532015856</v>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
@@ -2034,19 +2066,35 @@
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>-0.332925</v>
+      </c>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+      <c r="Y21" t="n">
+        <v>0.115079869491406</v>
+      </c>
       <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
+      <c r="AA21" t="n">
+        <v>0.2448244539376226</v>
+      </c>
       <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
+      <c r="AC21" t="n">
+        <v>0.120200493364368</v>
+      </c>
       <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
+      <c r="AE21" t="n">
+        <v>0.121099036640563</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>8.3935999e-08</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.179615127184338</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2068,25 +2116,25 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>4.826633115573237</v>
+        <v>4.826633115573234</v>
       </c>
       <c r="F22" t="n">
-        <v>0.497938311736443</v>
+        <v>0.4979383117364428</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.547262026771105</v>
+        <v>-5.547262026771104</v>
       </c>
       <c r="H22" t="n">
-        <v>4.768759915832433</v>
+        <v>4.768759915832044</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2065915601391419</v>
+        <v>0.206591560139125</v>
       </c>
       <c r="J22" t="n">
         <v>-13.21</v>
       </c>
       <c r="K22" t="n">
-        <v>0.414893883980733</v>
+        <v>0.4148938839806994</v>
       </c>
       <c r="L22" t="n">
         <v>0.13</v>
@@ -2108,11 +2156,11 @@
       </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>4.768759915832433</v>
+        <v>4.768759915832044</v>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
-        <v>0.2065915601391419</v>
+        <v>0.206591560139125</v>
       </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
@@ -2150,16 +2198,16 @@
         <v>-13.21</v>
       </c>
       <c r="H23" t="n">
-        <v>0.49195678905012</v>
+        <v>0.491956789050074</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06809245693563581</v>
+        <v>0.06809245693562944</v>
       </c>
       <c r="J23" t="n">
         <v>-13.21</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1959094395596988</v>
+        <v>0.1959094395596805</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2179,11 +2227,11 @@
       </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="n">
-        <v>0.49195678905012</v>
+        <v>0.491956789050074</v>
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
-        <v>0.06809245693563581</v>
+        <v>0.06809245693562944</v>
       </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
@@ -2212,25 +2260,25 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>1.465955758988992</v>
+        <v>1.465955759336281</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3345898405304283</v>
+        <v>0.3345898406096937</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.550743282537625</v>
+        <v>-5.550743282537622</v>
       </c>
       <c r="H24" t="n">
-        <v>1.076926979514542</v>
+        <v>1.076926979514509</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1032824348111858</v>
+        <v>0.1032824348111826</v>
       </c>
       <c r="J24" t="n">
         <v>-13.21</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3086837145068458</v>
+        <v>0.3086837144337082</v>
       </c>
       <c r="L24" t="n">
         <v>0.0002</v>
@@ -2252,11 +2300,11 @@
       </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="n">
-        <v>1.076926979514542</v>
+        <v>1.076926979514509</v>
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
-        <v>0.1032824348111858</v>
+        <v>0.1032824348111826</v>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
@@ -2285,25 +2333,25 @@
         <v>246.3</v>
       </c>
       <c r="E25" t="n">
-        <v>1.116107087963433</v>
+        <v>1.116107088093233</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2748980962125347</v>
+        <v>0.2748980962445054</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.550726324289703</v>
+        <v>-5.550726324289684</v>
       </c>
       <c r="H25" t="n">
-        <v>1.323884560568239</v>
+        <v>1.32388456056834</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1370133802567328</v>
+        <v>0.1370133802567433</v>
       </c>
       <c r="J25" t="n">
         <v>-13.21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4984151659995575</v>
+        <v>0.4984151659416299</v>
       </c>
       <c r="L25" t="n">
         <v>0.003</v>
@@ -2325,11 +2373,11 @@
       </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="n">
-        <v>1.323884560568239</v>
+        <v>1.32388456056834</v>
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
-        <v>0.1370133802567328</v>
+        <v>0.1370133802567433</v>
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
@@ -2358,25 +2406,25 @@
         <v>174.15</v>
       </c>
       <c r="E26" t="n">
-        <v>9.725652187360838</v>
+        <v>9.725652187360716</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7116896739912171</v>
+        <v>0.7116896739912081</v>
       </c>
       <c r="G26" t="n">
         <v>-13.21</v>
       </c>
       <c r="H26" t="n">
-        <v>4.563412132168618</v>
+        <v>4.563412132168388</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3339347562574059</v>
+        <v>0.3339347562573891</v>
       </c>
       <c r="J26" t="n">
         <v>-13.21</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4692139965789738</v>
+        <v>0.4692139965789561</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2396,11 +2444,11 @@
       </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="n">
-        <v>4.563412132168618</v>
+        <v>4.563412132168388</v>
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
-        <v>0.3339347562574059</v>
+        <v>0.3339347562573891</v>
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
@@ -2429,18 +2477,26 @@
         <v>270.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1013955788142332</v>
+        <v>0.1013955795695327</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2406785834077004</v>
+        <v>0.2406785852005243</v>
       </c>
       <c r="G27" t="n">
         <v>-0.332925</v>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0.102247504860163</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.2427007657977054</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.332925</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.008401996361647</v>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
@@ -2466,19 +2522,35 @@
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="n">
+        <v>-0.332925</v>
+      </c>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+      <c r="Y27" t="n">
+        <v>0.102247504860163</v>
+      </c>
       <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
+      <c r="AA27" t="n">
+        <v>0.2427007657977054</v>
+      </c>
       <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
+      <c r="AC27" t="n">
+        <v>0.118820778153617</v>
+      </c>
       <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
+      <c r="AE27" t="n">
+        <v>0.119709007546808</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>8.4755588e-08</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.000303167292057</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2500,25 +2572,25 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>2.491549780251542</v>
+        <v>2.491549795755361</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2594955561592948</v>
+        <v>0.2594955577740248</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.55073108000964</v>
+        <v>-5.55073108000957</v>
       </c>
       <c r="H28" t="n">
-        <v>2.989848416694203</v>
+        <v>2.989826998793612</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1308449291792606</v>
+        <v>0.130843991866295</v>
       </c>
       <c r="J28" t="n">
         <v>-13.21</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5042280149835772</v>
+        <v>0.5042243997881352</v>
       </c>
       <c r="L28" t="n">
         <v>0.001</v>
@@ -2540,11 +2612,11 @@
       </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="n">
-        <v>2.989848416694203</v>
+        <v>2.989826998793612</v>
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
-        <v>0.1308449291792606</v>
+        <v>0.130843991866295</v>
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
@@ -2573,25 +2645,25 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1308423337395128</v>
+        <v>0.1308423263862768</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2719810911745942</v>
+        <v>0.2719810758894712</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
       </c>
       <c r="H29" t="n">
-        <v>0.059078934933109</v>
+        <v>0.059079127950008</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1228069901330977</v>
+        <v>0.1228073913560453</v>
       </c>
       <c r="J29" t="n">
         <v>-2.201133727157571</v>
       </c>
       <c r="K29" t="n">
-        <v>0.451527676437858</v>
+        <v>0.4515291770003595</v>
       </c>
       <c r="L29" t="n">
         <v>0.14</v>
@@ -2625,11 +2697,11 @@
       </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
-        <v>0.059078934933109</v>
+        <v>0.059079127950008</v>
       </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
-        <v>0.1228069901330977</v>
+        <v>0.1228073913560453</v>
       </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="n">

--- a/application/output_max_withoutMP/compiled_results.xlsx
+++ b/application/output_max_withoutMP/compiled_results.xlsx
@@ -616,10 +616,10 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382212023962</v>
+        <v>17.81382266698288</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5695516930700739</v>
+        <v>0.5695517105508002</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
@@ -634,7 +634,7 @@
         <v>-13.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5800987509640747</v>
+        <v>0.5800987331596378</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -687,13 +687,13 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>2.555301938109797</v>
+        <v>2.555302149794611</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3122195099690078</v>
+        <v>0.3122195358389979</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.549610203628807</v>
+        <v>-5.549610203534854</v>
       </c>
       <c r="H3" t="n">
         <v>3.765885265022023</v>
@@ -705,7 +705,7 @@
         <v>-13.21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6191338120422361</v>
+        <v>0.6191337607418408</v>
       </c>
       <c r="L3" t="n">
         <v>0.08</v>
@@ -760,13 +760,13 @@
         <v>90.08</v>
       </c>
       <c r="E4" t="n">
-        <v>7.379942361103544</v>
+        <v>7.379942976240455</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6654236103138855</v>
+        <v>0.6654236658318946</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.545419566892341</v>
+        <v>-5.54541956644846</v>
       </c>
       <c r="H4" t="n">
         <v>4.789907146773598</v>
@@ -778,7 +778,7 @@
         <v>-13.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2724618603223352</v>
+        <v>0.272461837590141</v>
       </c>
       <c r="L4" t="n">
         <v>0.13</v>
@@ -833,13 +833,13 @@
         <v>90.08</v>
       </c>
       <c r="E5" t="n">
-        <v>8.294244088547805</v>
+        <v>8.294246188234464</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7479519880225586</v>
+        <v>0.7479521775708778</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.54475980965657</v>
+        <v>-5.544759808141415</v>
       </c>
       <c r="H5" t="n">
         <v>8.273785303549822</v>
@@ -851,7 +851,7 @@
         <v>-13.21</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4187042369203568</v>
+        <v>0.4187041308110536</v>
       </c>
       <c r="L5" t="n">
         <v>0.14</v>
@@ -906,13 +906,13 @@
         <v>90.08</v>
       </c>
       <c r="E6" t="n">
-        <v>7.379942361103544</v>
+        <v>7.379942976240455</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6654236103138855</v>
+        <v>0.6654236658318946</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.545419566892341</v>
+        <v>-5.54541956644846</v>
       </c>
       <c r="H6" t="n">
         <v>4.789907146773598</v>
@@ -924,7 +924,7 @@
         <v>-13.21</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2724618603223352</v>
+        <v>0.272461837590141</v>
       </c>
       <c r="L6" t="n">
         <v>0.13</v>
@@ -979,13 +979,13 @@
         <v>90.08</v>
       </c>
       <c r="E7" t="n">
-        <v>8.294244088547805</v>
+        <v>8.294246188234464</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7479519880225586</v>
+        <v>0.7479521775708778</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.54475980965657</v>
+        <v>-5.544759808141415</v>
       </c>
       <c r="H7" t="n">
         <v>8.273785303549822</v>
@@ -997,7 +997,7 @@
         <v>-13.21</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4187042369203568</v>
+        <v>0.4187041308110536</v>
       </c>
       <c r="L7" t="n">
         <v>0.14</v>
@@ -1052,13 +1052,13 @@
         <v>137.11</v>
       </c>
       <c r="E8" t="n">
-        <v>3.354728528907292</v>
+        <v>3.354728788447814</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4600748684385398</v>
+        <v>0.4600749040408597</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.549441423005486</v>
+        <v>-5.549441422904642</v>
       </c>
       <c r="H8" t="n">
         <v>3.201832471428046</v>
@@ -1070,7 +1070,7 @@
         <v>-13.21</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4009476539841684</v>
+        <v>0.4009476229573366</v>
       </c>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
@@ -1125,10 +1125,10 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697655376507</v>
+        <v>2.844697752082403</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995809453898</v>
+        <v>0.2800995904674143</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
@@ -1143,7 +1143,7 @@
         <v>-13.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4459930801514966</v>
+        <v>0.4459930649898998</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1196,13 +1196,13 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>5.008732115512599</v>
+        <v>5.008732560944163</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4516357717353797</v>
+        <v>0.4516358119219428</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.547686668594409</v>
+        <v>-5.547686668322433</v>
       </c>
       <c r="H10" t="n">
         <v>12.86101832859704</v>
@@ -1214,7 +1214,7 @@
         <v>-13.21</v>
       </c>
       <c r="K10" t="n">
-        <v>1.078342343576756</v>
+        <v>1.078342247625834</v>
       </c>
       <c r="L10" t="n">
         <v>0.11</v>
@@ -1269,13 +1269,13 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>4.161856555786007</v>
+        <v>4.161856922388809</v>
       </c>
       <c r="F11" t="n">
-        <v>0.308528169914323</v>
+        <v>0.3085281970959719</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.549820853803196</v>
+        <v>-5.5498208537218</v>
       </c>
       <c r="H11" t="n">
         <v>8.787635674310746</v>
@@ -1287,7 +1287,7 @@
         <v>-13.21</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8870765168963507</v>
+        <v>0.8870764387440045</v>
       </c>
       <c r="L11" t="n">
         <v>0.04</v>
@@ -1342,10 +1342,10 @@
         <v>146.1</v>
       </c>
       <c r="E12" t="n">
-        <v>12.48937108880216</v>
+        <v>12.48937153880212</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7667243171293748</v>
+        <v>0.7667243447549384</v>
       </c>
       <c r="G12" t="n">
         <v>-13.21</v>
@@ -1360,7 +1360,7 @@
         <v>-13.21</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3990386909380141</v>
+        <v>0.3990386765603974</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1413,13 +1413,13 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>2.611823931661305</v>
+        <v>2.611824146528024</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4262860820791775</v>
+        <v>0.4262861171621672</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.548570274707767</v>
+        <v>-5.548570274528857</v>
       </c>
       <c r="H13" t="n">
         <v>3.087637525036586</v>
@@ -1431,7 +1431,7 @@
         <v>-13.21</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4965473709394017</v>
+        <v>0.4965473300739697</v>
       </c>
       <c r="L13" t="n">
         <v>0.15</v>
@@ -1486,13 +1486,13 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>1.016994536421393</v>
+        <v>1.016994628181934</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2607839207207009</v>
+        <v>0.2607839442528904</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.550180402242267</v>
+        <v>-5.550180402191322</v>
       </c>
       <c r="H14" t="n">
         <v>0.716460988511337</v>
@@ -1504,7 +1504,7 @@
         <v>-13.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2959907983812773</v>
+        <v>0.2959907716721501</v>
       </c>
       <c r="L14" t="n">
         <v>0.1</v>
@@ -1559,13 +1559,13 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9874314723701774</v>
+        <v>0.9874315539365099</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2393940680876117</v>
+        <v>0.2393940878627484</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.550717505065815</v>
+        <v>-5.550717505063559</v>
       </c>
       <c r="H15" t="n">
         <v>0.728351265847033</v>
@@ -1577,7 +1577,7 @@
         <v>-13.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.309941850422557</v>
+        <v>0.309941824819826</v>
       </c>
       <c r="L15" t="n">
         <v>0.005</v>
@@ -1632,13 +1632,13 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>4.68640372837228</v>
+        <v>4.686404134304864</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3474539429141642</v>
+        <v>0.3474539730188147</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.549184128068436</v>
+        <v>-5.549184127933245</v>
       </c>
       <c r="H16" t="n">
         <v>12.36424248898357</v>
@@ -1650,7 +1650,7 @@
         <v>-13.21</v>
       </c>
       <c r="K16" t="n">
-        <v>1.108291830289018</v>
+        <v>1.108291734262664</v>
       </c>
       <c r="L16" t="n">
         <v>0.06</v>
@@ -1705,13 +1705,13 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>8.860211570646928</v>
+        <v>8.860212257892947</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7940334043275107</v>
+        <v>0.7940334662958887</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.516810175715775</v>
+        <v>-5.516810173083626</v>
       </c>
       <c r="H17" t="n">
         <v>21.15294223104726</v>
@@ -1723,7 +1723,7 @@
         <v>-13.21</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9970384667829751</v>
+        <v>0.9970383889715739</v>
       </c>
       <c r="L17" t="n">
         <v>0.6899999999999999</v>
@@ -1778,13 +1778,13 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>3.836460770451315</v>
+        <v>3.836461087360367</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5375941614562846</v>
+        <v>0.5375942058759244</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.549254244910345</v>
+        <v>-5.549254244787249</v>
       </c>
       <c r="H18" t="n">
         <v>4.807363077610059</v>
@@ -1796,7 +1796,7 @@
         <v>-13.21</v>
       </c>
       <c r="K18" t="n">
-        <v>0.526390408407729</v>
+        <v>0.526390364913822</v>
       </c>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
@@ -1851,10 +1851,10 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969093042076502</v>
+        <v>3.969093166108907</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540541189919563</v>
+        <v>0.4540541331809471</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
@@ -1869,7 +1869,7 @@
         <v>-13.21</v>
       </c>
       <c r="K19" t="n">
-        <v>0.271327272615885</v>
+        <v>0.2713272641370277</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1922,10 +1922,10 @@
         <v>268.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09996363049204202</v>
+        <v>0.09996683862160764</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2355252475975343</v>
+        <v>0.2355328063017005</v>
       </c>
       <c r="G20" t="n">
         <v>-0.332925</v>
@@ -1940,7 +1940,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K20" t="n">
-        <v>1.008269465510717</v>
+        <v>1.008237108189759</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1949,22 +1949,10 @@
           <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS_AERO_SC_hvd:(0.0133333333333333,1000)</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Fed-batch; 2L; 40 g/L after 24 h; pH 5.0; sucrose as substrate</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4607723/</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.005138585269748739</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1000</v>
-      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
           <t>Rounded up trace element uptakes to account for contributions from seed cultures, until yields could be replicated</t>
@@ -2021,10 +2009,10 @@
         <v>242.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1141673830273931</v>
+        <v>0.1141710361216055</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2428832021681798</v>
+        <v>0.2428909738731678</v>
       </c>
       <c r="G21" t="n">
         <v>-0.332925</v>
@@ -2039,7 +2027,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K21" t="n">
-        <v>1.007992532015856</v>
+        <v>1.007960279600445</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -2048,22 +2036,10 @@
           <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS_AERO_SC_hvd:(0.0133333333333333,1000)</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Fed-batch; 2L; 40 g/L after 24 h; pH 5.0; sucrose as substrate</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4607723/</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.000753211910791016</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1000</v>
-      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
@@ -2116,13 +2092,13 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>4.826633115573234</v>
+        <v>4.82663356524879</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4979383117364428</v>
+        <v>0.4979383581562272</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.547262026771104</v>
+        <v>-5.547262026446624</v>
       </c>
       <c r="H22" t="n">
         <v>4.768759915832044</v>
@@ -2134,7 +2110,7 @@
         <v>-13.21</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4148938839806994</v>
+        <v>0.4148938453026494</v>
       </c>
       <c r="L22" t="n">
         <v>0.13</v>
@@ -2189,10 +2165,10 @@
         <v>329.4</v>
       </c>
       <c r="E23" t="n">
-        <v>2.511143874209327</v>
+        <v>2.511143938761768</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3475710873793104</v>
+        <v>0.3475710963141081</v>
       </c>
       <c r="G23" t="n">
         <v>-13.21</v>
@@ -2207,7 +2183,7 @@
         <v>-13.21</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1959094395596805</v>
+        <v>0.1959094345235563</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2260,13 +2236,13 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>1.465955759336281</v>
+        <v>1.465955880083579</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3345898406096937</v>
+        <v>0.3345898681690729</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.550743282537622</v>
+        <v>-5.550743282537491</v>
       </c>
       <c r="H24" t="n">
         <v>1.076926979514509</v>
@@ -2278,7 +2254,7 @@
         <v>-13.21</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3086837144337082</v>
+        <v>0.3086836890081579</v>
       </c>
       <c r="L24" t="n">
         <v>0.0002</v>
@@ -2333,13 +2309,13 @@
         <v>246.3</v>
       </c>
       <c r="E25" t="n">
-        <v>1.116107088093233</v>
+        <v>1.116107188372866</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2748980962445054</v>
+        <v>0.2748981209435446</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.550726324289684</v>
+        <v>-5.550726324288012</v>
       </c>
       <c r="H25" t="n">
         <v>1.32388456056834</v>
@@ -2351,7 +2327,7 @@
         <v>-13.21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4984151659416299</v>
+        <v>0.4984151211600371</v>
       </c>
       <c r="L25" t="n">
         <v>0.003</v>
@@ -2406,10 +2382,10 @@
         <v>174.15</v>
       </c>
       <c r="E26" t="n">
-        <v>9.725652187360716</v>
+        <v>9.725652483182483</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7116896739912081</v>
+        <v>0.7116896956384244</v>
       </c>
       <c r="G26" t="n">
         <v>-13.21</v>
@@ -2424,7 +2400,7 @@
         <v>-13.21</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4692139965789561</v>
+        <v>0.4692139823070383</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2477,10 +2453,10 @@
         <v>270.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1013955795695327</v>
+        <v>0.1013986989748657</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2406785852005243</v>
+        <v>0.2406859896067657</v>
       </c>
       <c r="G27" t="n">
         <v>-0.332925</v>
@@ -2495,7 +2471,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K27" t="n">
-        <v>1.008401996361647</v>
+        <v>1.008370974123718</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2504,22 +2480,10 @@
           <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS_AERO_SC_hvd:(0.0133333333333333,1000)</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Fed-batch; 2L; 40 g/L after 24 h; pH 5.0; sucrose as substrate</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4607723/</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.001125130595515551</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1000</v>
-      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
@@ -2572,13 +2536,13 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>2.491549795755361</v>
+        <v>2.491549985474709</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2594955577740248</v>
+        <v>0.2594955775333938</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.55073108000957</v>
+        <v>-5.550731080008508</v>
       </c>
       <c r="H28" t="n">
         <v>2.989826998793612</v>
@@ -2590,7 +2554,7 @@
         <v>-13.21</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5042243997881352</v>
+        <v>0.5042243613938163</v>
       </c>
       <c r="L28" t="n">
         <v>0.001</v>
@@ -2645,10 +2609,10 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1308423263862768</v>
+        <v>0.1308412082689866</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2719810758894712</v>
+        <v>0.2719787516664774</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
@@ -2663,7 +2627,7 @@
         <v>-2.201133727157571</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4515291770003595</v>
+        <v>0.4515330355903747</v>
       </c>
       <c r="L29" t="n">
         <v>0.14</v>
@@ -2674,16 +2638,8 @@
           <t>c_sources:EX_glc__D_e;BIOMASS_AERO_SC_hvd:(0.009615384615,0.14);EX_glc__D_e:(-2.20113372715757,1000);EX_nh4_e:(-0.181824845165991,1000);EX_o2_e:(-26.25403530509562,1000)</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Strain CBS 14; minimal media; N limitation; max growth of 0.14/h; sugar went from 40.8 ± 0.3 to 3.19 ± 0.81 g/l (cultivated in 0.5 l)</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1186/s13068-019-1478-8</t>
-        </is>
-      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
@@ -2738,10 +2694,10 @@
         <v>126.11004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007105612999394498</v>
+        <v>0.007105611591567823</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06718414909479177</v>
+        <v>0.06718413578367599</v>
       </c>
       <c r="G30" t="n">
         <v>-0.078476895921783</v>
@@ -2757,22 +2713,10 @@
           <t>c_sources:EX_xyl__D_e,EX_glc__D_e;EX_xyl__D_e:(-0.0266525306904169,-0.0266525306904169);EX_glc__D_e:(-0.0518243652313661,-0.0518243652313661);BIOMASS_AERO_SC_hvd:(0,0.0138888888888889);BiomassKim_e:(0,0);EX_btn_c:(0,0.02);ATPM_c:(0,1000);EX_4abz_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_thm_e:(-1000,1000);EX_o2_e:(-26.25403530509562,1000)</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Strain IFO0880 with genetic modifications made to allow TAL production; grown using glucose. UB is theoretical maximum yield, while LB is observed yield at 95 h. Use biomass from RT_IFO0880 model (Kim et al. (2020)), to provide data based on similar conditions.</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>https://analyticalsciencejournals.onlinelibrary.wiley.com/doi/full/10.1002/bit.28159</t>
-        </is>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.01113301928416149</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.01278064790097615</v>
-      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>

--- a/application/output_max_withoutMP/compiled_results.xlsx
+++ b/application/output_max_withoutMP/compiled_results.xlsx
@@ -687,13 +687,13 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>2.555302149794611</v>
+        <v>2.555302146413386</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3122195358389979</v>
+        <v>0.3122195354257759</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.549610203534854</v>
+        <v>-5.549610203536402</v>
       </c>
       <c r="H3" t="n">
         <v>3.765885265022023</v>
@@ -705,7 +705,7 @@
         <v>-13.21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6191337607418408</v>
+        <v>0.6191337615612632</v>
       </c>
       <c r="L3" t="n">
         <v>0.08</v>
@@ -760,13 +760,13 @@
         <v>90.08</v>
       </c>
       <c r="E4" t="n">
-        <v>7.379942976240455</v>
+        <v>7.379942970720204</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6654236658318946</v>
+        <v>0.6654236653336743</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.54541956644846</v>
+        <v>-5.545419566452449</v>
       </c>
       <c r="H4" t="n">
         <v>4.789907146773598</v>
@@ -778,7 +778,7 @@
         <v>-13.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.272461837590141</v>
+        <v>0.2724618377941404</v>
       </c>
       <c r="L4" t="n">
         <v>0.13</v>
@@ -906,13 +906,13 @@
         <v>90.08</v>
       </c>
       <c r="E6" t="n">
-        <v>7.379942976240455</v>
+        <v>7.379942970720204</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6654236658318946</v>
+        <v>0.6654236653336743</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.54541956644846</v>
+        <v>-5.545419566452449</v>
       </c>
       <c r="H6" t="n">
         <v>4.789907146773598</v>
@@ -924,7 +924,7 @@
         <v>-13.21</v>
       </c>
       <c r="K6" t="n">
-        <v>0.272461837590141</v>
+        <v>0.2724618377941404</v>
       </c>
       <c r="L6" t="n">
         <v>0.13</v>
@@ -1052,13 +1052,13 @@
         <v>137.11</v>
       </c>
       <c r="E8" t="n">
-        <v>3.354728788447814</v>
+        <v>3.3547287891794</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4600749040408597</v>
+        <v>0.4600749041412152</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.549441422904642</v>
+        <v>-5.549441422904351</v>
       </c>
       <c r="H8" t="n">
         <v>3.201832471428046</v>
@@ -1070,7 +1070,7 @@
         <v>-13.21</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4009476229573366</v>
+        <v>0.4009476228698785</v>
       </c>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
@@ -1125,10 +1125,10 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697752082403</v>
+        <v>2.844697751491924</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995904674143</v>
+        <v>0.2800995904092736</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
@@ -1143,7 +1143,7 @@
         <v>-13.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4459930649898998</v>
+        <v>0.4459930650824754</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1269,13 +1269,13 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>4.161856922388809</v>
+        <v>4.161856922388838</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3085281970959719</v>
+        <v>0.3085281970959751</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.5498208537218</v>
+        <v>-5.549820853721783</v>
       </c>
       <c r="H11" t="n">
         <v>8.787635674310746</v>
@@ -1287,7 +1287,7 @@
         <v>-13.21</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8870764387440045</v>
+        <v>0.8870764387439954</v>
       </c>
       <c r="L11" t="n">
         <v>0.04</v>
@@ -1342,10 +1342,10 @@
         <v>146.1</v>
       </c>
       <c r="E12" t="n">
-        <v>12.48937153880212</v>
+        <v>12.48937108880217</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7667243447549384</v>
+        <v>0.7667243171293754</v>
       </c>
       <c r="G12" t="n">
         <v>-13.21</v>
@@ -1360,7 +1360,7 @@
         <v>-13.21</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3990386765603974</v>
+        <v>0.3990386909380138</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1413,13 +1413,13 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>2.611824146528024</v>
+        <v>2.611824148030394</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4262861171621672</v>
+        <v>0.4262861174074705</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.548570274528857</v>
+        <v>-5.548570274527612</v>
       </c>
       <c r="H13" t="n">
         <v>3.087637525036586</v>
@@ -1431,7 +1431,7 @@
         <v>-13.21</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4965473300739697</v>
+        <v>0.4965473297882351</v>
       </c>
       <c r="L13" t="n">
         <v>0.15</v>
@@ -1486,13 +1486,13 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>1.016994628181934</v>
+        <v>1.016994620429751</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2607839442528904</v>
+        <v>0.2607839422648261</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.550180402191322</v>
+        <v>-5.550180402195631</v>
       </c>
       <c r="H14" t="n">
         <v>0.716460988511337</v>
@@ -1504,7 +1504,7 @@
         <v>-13.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2959907716721501</v>
+        <v>0.2959907739286106</v>
       </c>
       <c r="L14" t="n">
         <v>0.1</v>
@@ -1559,13 +1559,13 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9874315539365099</v>
+        <v>0.9874315537026207</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2393940878627484</v>
+        <v>0.2393940878060441</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.550717505063559</v>
+        <v>-5.550717505063556</v>
       </c>
       <c r="H15" t="n">
         <v>0.728351265847033</v>
@@ -1577,7 +1577,7 @@
         <v>-13.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.309941824819826</v>
+        <v>0.3099418248932406</v>
       </c>
       <c r="L15" t="n">
         <v>0.005</v>
@@ -1632,13 +1632,13 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>4.686404134304864</v>
+        <v>4.686404129847706</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3474539730188147</v>
+        <v>0.3474539726882644</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.549184127933245</v>
+        <v>-5.549184127934729</v>
       </c>
       <c r="H16" t="n">
         <v>12.36424248898357</v>
@@ -1650,7 +1650,7 @@
         <v>-13.21</v>
       </c>
       <c r="K16" t="n">
-        <v>1.108291734262664</v>
+        <v>1.108291735317037</v>
       </c>
       <c r="L16" t="n">
         <v>0.06</v>
@@ -1705,13 +1705,13 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>8.860212257892947</v>
+        <v>8.860212302540704</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7940334662958887</v>
+        <v>0.7940334703217333</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.516810173083626</v>
+        <v>-5.516810172912661</v>
       </c>
       <c r="H17" t="n">
         <v>21.15294223104726</v>
@@ -1723,7 +1723,7 @@
         <v>-13.21</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9970383889715739</v>
+        <v>0.99703838391647</v>
       </c>
       <c r="L17" t="n">
         <v>0.6899999999999999</v>
@@ -1778,13 +1778,13 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>3.836461087360367</v>
+        <v>3.83646087776361</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5375942058759244</v>
+        <v>0.5375941764977421</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.549254244787249</v>
+        <v>-5.549254244868644</v>
       </c>
       <c r="H18" t="n">
         <v>4.807363077610059</v>
@@ -1796,7 +1796,7 @@
         <v>-13.21</v>
       </c>
       <c r="K18" t="n">
-        <v>0.526390364913822</v>
+        <v>0.5263903936797439</v>
       </c>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
@@ -1851,10 +1851,10 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969093166108907</v>
+        <v>3.969093165210287</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540541331809471</v>
+        <v>0.4540541330781472</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
@@ -1869,7 +1869,7 @@
         <v>-13.21</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2713272641370277</v>
+        <v>0.2713272641984574</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -2165,10 +2165,10 @@
         <v>329.4</v>
       </c>
       <c r="E23" t="n">
-        <v>2.511143938761768</v>
+        <v>2.511143937823774</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3475710963141081</v>
+        <v>0.3475710961842789</v>
       </c>
       <c r="G23" t="n">
         <v>-13.21</v>
@@ -2183,7 +2183,7 @@
         <v>-13.21</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1959094345235563</v>
+        <v>0.1959094345967349</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2309,13 +2309,13 @@
         <v>246.3</v>
       </c>
       <c r="E25" t="n">
-        <v>1.116107188372866</v>
+        <v>1.116107188502733</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2748981209435446</v>
+        <v>0.2748981209755296</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.550726324288012</v>
+        <v>-5.550726324288036</v>
       </c>
       <c r="H25" t="n">
         <v>1.32388456056834</v>
@@ -2327,7 +2327,7 @@
         <v>-13.21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4984151211600371</v>
+        <v>0.4984151211020453</v>
       </c>
       <c r="L25" t="n">
         <v>0.003</v>
@@ -2453,10 +2453,10 @@
         <v>270.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1013986989748657</v>
+        <v>0.1013988328992703</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2406859896067657</v>
+        <v>0.2406863074977069</v>
       </c>
       <c r="G27" t="n">
         <v>-0.332925</v>
@@ -2471,7 +2471,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K27" t="n">
-        <v>1.008370974123718</v>
+        <v>1.008369642298898</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2536,13 +2536,13 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>2.491549985474709</v>
+        <v>2.49154978025147</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2594955775333938</v>
+        <v>0.2594955561592865</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.550731080008508</v>
+        <v>-5.550731080009657</v>
       </c>
       <c r="H28" t="n">
         <v>2.989826998793612</v>
@@ -2554,7 +2554,7 @@
         <v>-13.21</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5042243613938163</v>
+        <v>0.5042244029257243</v>
       </c>
       <c r="L28" t="n">
         <v>0.001</v>
@@ -2609,10 +2609,10 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1308412082689866</v>
+        <v>0.1308412067177736</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2719787516664774</v>
+        <v>0.2719787484419812</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
@@ -2627,7 +2627,7 @@
         <v>-2.201133727157571</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4515330355903747</v>
+        <v>0.4515330409436112</v>
       </c>
       <c r="L29" t="n">
         <v>0.14</v>
@@ -2694,10 +2694,10 @@
         <v>126.11004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007105611591567823</v>
+        <v>0.007105680059812832</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06718413578367599</v>
+        <v>0.06718478315650384</v>
       </c>
       <c r="G30" t="n">
         <v>-0.078476895921783</v>

--- a/application/output_max_withoutMP/compiled_results.xlsx
+++ b/application/output_max_withoutMP/compiled_results.xlsx
@@ -616,10 +616,10 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382266698288</v>
+        <v>17.81382210473816</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5695517105508002</v>
+        <v>0.5695516925744543</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
@@ -634,7 +634,7 @@
         <v>-13.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5800987331596378</v>
+        <v>0.5800987514688722</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -687,13 +687,13 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>2.555302146413386</v>
+        <v>6.941370044788568</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3122195354257759</v>
+        <v>0.3563056204478834</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.549610203536402</v>
+        <v>-13.21</v>
       </c>
       <c r="H3" t="n">
         <v>3.765885265022023</v>
@@ -705,7 +705,7 @@
         <v>-13.21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6191337615612632</v>
+        <v>0.5425276625108567</v>
       </c>
       <c r="L3" t="n">
         <v>0.08</v>
@@ -760,13 +760,13 @@
         <v>90.08</v>
       </c>
       <c r="E4" t="n">
-        <v>7.379942970720204</v>
+        <v>20.06614443981965</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6654236653336743</v>
+        <v>0.7595227088575357</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.545419566452449</v>
+        <v>-13.21</v>
       </c>
       <c r="H4" t="n">
         <v>4.789907146773598</v>
@@ -778,7 +778,7 @@
         <v>-13.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2724618377941404</v>
+        <v>0.2387059039238457</v>
       </c>
       <c r="L4" t="n">
         <v>0.13</v>
@@ -833,13 +833,13 @@
         <v>90.08</v>
       </c>
       <c r="E5" t="n">
-        <v>8.294246188234464</v>
+        <v>22.34089249430825</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7479521775708778</v>
+        <v>0.8456240926831734</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.544759808141415</v>
+        <v>-13.21</v>
       </c>
       <c r="H5" t="n">
         <v>8.273785303549822</v>
@@ -851,7 +851,7 @@
         <v>-13.21</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4187041308110536</v>
+        <v>0.3703426488291691</v>
       </c>
       <c r="L5" t="n">
         <v>0.14</v>
@@ -906,13 +906,13 @@
         <v>90.08</v>
       </c>
       <c r="E6" t="n">
-        <v>7.379942970720204</v>
+        <v>20.06614443981965</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6654236653336743</v>
+        <v>0.7595227088575357</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.545419566452449</v>
+        <v>-13.21</v>
       </c>
       <c r="H6" t="n">
         <v>4.789907146773598</v>
@@ -924,7 +924,7 @@
         <v>-13.21</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2724618377941404</v>
+        <v>0.2387059039238457</v>
       </c>
       <c r="L6" t="n">
         <v>0.13</v>
@@ -979,13 +979,13 @@
         <v>90.08</v>
       </c>
       <c r="E7" t="n">
-        <v>8.294246188234464</v>
+        <v>22.34089249430825</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7479521775708778</v>
+        <v>0.8456240926831734</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.544759808141415</v>
+        <v>-13.21</v>
       </c>
       <c r="H7" t="n">
         <v>8.273785303549822</v>
@@ -997,7 +997,7 @@
         <v>-13.21</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4187041308110536</v>
+        <v>0.3703426488291691</v>
       </c>
       <c r="L7" t="n">
         <v>0.14</v>
@@ -1052,13 +1052,13 @@
         <v>137.11</v>
       </c>
       <c r="E8" t="n">
-        <v>3.3547287891794</v>
+        <v>9.055951924829568</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4600749041412152</v>
+        <v>0.521737065160645</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.549441422904351</v>
+        <v>-13.21</v>
       </c>
       <c r="H8" t="n">
         <v>3.201832471428046</v>
@@ -1070,7 +1070,7 @@
         <v>-13.21</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4009476228698785</v>
+        <v>0.3535611162697625</v>
       </c>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
@@ -1125,10 +1125,10 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697751491924</v>
+        <v>2.844697670245594</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995904092736</v>
+        <v>0.2800995824094558</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
@@ -1143,7 +1143,7 @@
         <v>-13.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4459930650824754</v>
+        <v>0.4459930778203139</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1196,13 +1196,13 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>5.008732560944163</v>
+        <v>12.8944378446668</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4516358119219428</v>
+        <v>0.488283498804935</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.547686668322433</v>
+        <v>-13.21</v>
       </c>
       <c r="H10" t="n">
         <v>12.86101832859704</v>
@@ -1214,7 +1214,7 @@
         <v>-13.21</v>
       </c>
       <c r="K10" t="n">
-        <v>1.078342247625834</v>
+        <v>0.9974082223302524</v>
       </c>
       <c r="L10" t="n">
         <v>0.11</v>
@@ -1269,13 +1269,13 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>4.161856922388838</v>
+        <v>11.19787294998664</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3085281970959751</v>
+        <v>0.3487541611690804</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.549820853721783</v>
+        <v>-13.21</v>
       </c>
       <c r="H11" t="n">
         <v>8.787635674310746</v>
@@ -1287,7 +1287,7 @@
         <v>-13.21</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8870764387439954</v>
+        <v>0.7847593657794829</v>
       </c>
       <c r="L11" t="n">
         <v>0.04</v>
@@ -1342,10 +1342,10 @@
         <v>146.1</v>
       </c>
       <c r="E12" t="n">
-        <v>12.48937108880217</v>
+        <v>12.48937108880209</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7667243171293754</v>
+        <v>0.7667243171293706</v>
       </c>
       <c r="G12" t="n">
         <v>-13.21</v>
@@ -1360,7 +1360,7 @@
         <v>-13.21</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3990386909380138</v>
+        <v>0.3990386909380163</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1413,13 +1413,13 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>2.611824148030394</v>
+        <v>7.096204221127857</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4262861174074705</v>
+        <v>0.4864762418608935</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.548570274527612</v>
+        <v>-13.21</v>
       </c>
       <c r="H13" t="n">
         <v>3.087637525036586</v>
@@ -1431,7 +1431,7 @@
         <v>-13.21</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4965473297882351</v>
+        <v>0.4351111423546155</v>
       </c>
       <c r="L13" t="n">
         <v>0.15</v>
@@ -1486,13 +1486,13 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>1.016994620429751</v>
+        <v>2.761960154328127</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2607839422648261</v>
+        <v>0.2975663935774678</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.550180402195631</v>
+        <v>-13.21</v>
       </c>
       <c r="H14" t="n">
         <v>0.716460988511337</v>
@@ -1504,7 +1504,7 @@
         <v>-13.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2959907739286106</v>
+        <v>0.2594030863872557</v>
       </c>
       <c r="L14" t="n">
         <v>0.1</v>
@@ -1559,13 +1559,13 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9874315537026207</v>
+        <v>2.677177417204605</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2393940878060441</v>
+        <v>0.2727280956668592</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.550717505063556</v>
+        <v>-13.21</v>
       </c>
       <c r="H15" t="n">
         <v>0.728351265847033</v>
@@ -1577,7 +1577,7 @@
         <v>-13.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3099418248932406</v>
+        <v>0.2720593940343134</v>
       </c>
       <c r="L15" t="n">
         <v>0.005</v>
@@ -1632,13 +1632,13 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>4.686404129847706</v>
+        <v>12.5238538026001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3474539726882644</v>
+        <v>0.3900514094987304</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.549184127934729</v>
+        <v>-13.21</v>
       </c>
       <c r="H16" t="n">
         <v>12.36424248898357</v>
@@ -1650,7 +1650,7 @@
         <v>-13.21</v>
       </c>
       <c r="K16" t="n">
-        <v>1.108291735317037</v>
+        <v>0.9872554154549937</v>
       </c>
       <c r="L16" t="n">
         <v>0.06</v>
@@ -1705,13 +1705,13 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>8.860212302540704</v>
+        <v>24.24659146894868</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7940334703217333</v>
+        <v>0.9074664948630266</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.516810172912661</v>
+        <v>-13.21</v>
       </c>
       <c r="H17" t="n">
         <v>21.15294223104726</v>
@@ -1723,7 +1723,7 @@
         <v>-13.21</v>
       </c>
       <c r="K17" t="n">
-        <v>0.99703838391647</v>
+        <v>0.8724089016032093</v>
       </c>
       <c r="L17" t="n">
         <v>0.6899999999999999</v>
@@ -1778,13 +1778,13 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>3.83646087776361</v>
+        <v>10.42241532098108</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5375941764977421</v>
+        <v>0.6135132722286827</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.549254244868644</v>
+        <v>-13.21</v>
       </c>
       <c r="H18" t="n">
         <v>4.807363077610059</v>
@@ -1796,7 +1796,7 @@
         <v>-13.21</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5263903936797439</v>
+        <v>0.4612523037661422</v>
       </c>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
@@ -1851,10 +1851,10 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969093165210287</v>
+        <v>3.969093061921526</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540541330781472</v>
+        <v>0.4540541212621765</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
@@ -1869,7 +1869,7 @@
         <v>-13.21</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2713272641984574</v>
+        <v>0.2713272712592787</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1922,10 +1922,10 @@
         <v>268.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09996683862160764</v>
+        <v>0.09996363266789167</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2355328063017005</v>
+        <v>0.2355252527240741</v>
       </c>
       <c r="G20" t="n">
         <v>-0.332925</v>
@@ -1940,7 +1940,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K20" t="n">
-        <v>1.008237108189759</v>
+        <v>1.008269443564308</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -2009,10 +2009,10 @@
         <v>242.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1141710361216055</v>
+        <v>0.114167371871854</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2428909738731678</v>
+        <v>0.2428831784355429</v>
       </c>
       <c r="G21" t="n">
         <v>-0.332925</v>
@@ -2027,7 +2027,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K21" t="n">
-        <v>1.007960279600445</v>
+        <v>1.007992630508971</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -2092,13 +2092,13 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>4.82663356524879</v>
+        <v>12.48937108880229</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4979383581562272</v>
+        <v>0.5410628137990376</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.547262026446624</v>
+        <v>-13.21</v>
       </c>
       <c r="H22" t="n">
         <v>4.768759915832044</v>
@@ -2110,7 +2110,7 @@
         <v>-13.21</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4148938453026494</v>
+        <v>0.3818254643828795</v>
       </c>
       <c r="L22" t="n">
         <v>0.13</v>
@@ -2165,10 +2165,10 @@
         <v>329.4</v>
       </c>
       <c r="E23" t="n">
-        <v>2.511143937823774</v>
+        <v>2.511143887422177</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3475710961842789</v>
+        <v>0.3475710892081204</v>
       </c>
       <c r="G23" t="n">
         <v>-13.21</v>
@@ -2183,7 +2183,7 @@
         <v>-13.21</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1959094345967349</v>
+        <v>0.1959094385288666</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2236,13 +2236,13 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>1.465955880083579</v>
+        <v>3.96909303424228</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3345898681690729</v>
+        <v>0.3806549565258843</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.550743282537491</v>
+        <v>-13.21</v>
       </c>
       <c r="H24" t="n">
         <v>1.076926979514509</v>
@@ -2254,7 +2254,7 @@
         <v>-13.21</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3086836890081579</v>
+        <v>0.2713282279411472</v>
       </c>
       <c r="L24" t="n">
         <v>0.0002</v>
@@ -2309,13 +2309,13 @@
         <v>246.3</v>
       </c>
       <c r="E25" t="n">
-        <v>1.116107188502733</v>
+        <v>2.957467015229745</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2748981209755296</v>
+        <v>0.3060784639564738</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.550726324288036</v>
+        <v>-13.21</v>
       </c>
       <c r="H25" t="n">
         <v>1.32388456056834</v>
@@ -2327,7 +2327,7 @@
         <v>-13.21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4984151211020453</v>
+        <v>0.4476413612563981</v>
       </c>
       <c r="L25" t="n">
         <v>0.003</v>
@@ -2382,10 +2382,10 @@
         <v>174.15</v>
       </c>
       <c r="E26" t="n">
-        <v>9.725652483182483</v>
+        <v>9.725652288380664</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7116896956384244</v>
+        <v>0.7116896813834993</v>
       </c>
       <c r="G26" t="n">
         <v>-13.21</v>
@@ -2400,7 +2400,7 @@
         <v>-13.21</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4692139823070383</v>
+        <v>0.4692139917052498</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2453,10 +2453,10 @@
         <v>270.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1013988328992703</v>
+        <v>0.1013955785655886</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2406863074977069</v>
+        <v>0.2406785828175028</v>
       </c>
       <c r="G27" t="n">
         <v>-0.332925</v>
@@ -2471,7 +2471,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K27" t="n">
-        <v>1.008369642298898</v>
+        <v>1.008402006346098</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2536,13 +2536,13 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>2.49154978025147</v>
+        <v>6.766253948281869</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2594955561592865</v>
+        <v>0.2961120081300709</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.550731080009657</v>
+        <v>-13.21</v>
       </c>
       <c r="H28" t="n">
         <v>2.989826998793612</v>
@@ -2554,7 +2554,7 @@
         <v>-13.21</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5042244029257243</v>
+        <v>0.4418733056202847</v>
       </c>
       <c r="L28" t="n">
         <v>0.001</v>
@@ -2609,10 +2609,10 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1308412067177736</v>
+        <v>0.1308423118282197</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2719787484419812</v>
+        <v>0.2719810456277346</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
@@ -2627,7 +2627,7 @@
         <v>-2.201133727157571</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4515330409436112</v>
+        <v>0.4515292272393641</v>
       </c>
       <c r="L29" t="n">
         <v>0.14</v>
@@ -2694,10 +2694,10 @@
         <v>126.11004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007105680059812832</v>
+        <v>0.007105611207608455</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06718478315650384</v>
+        <v>0.06718413215330893</v>
       </c>
       <c r="G30" t="n">
         <v>-0.078476895921783</v>

--- a/application/output_max_withoutMP/compiled_results.xlsx
+++ b/application/output_max_withoutMP/compiled_results.xlsx
@@ -616,10 +616,10 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382210473816</v>
+        <v>17.81382230371743</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5695516925744543</v>
+        <v>0.5695516989363105</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
@@ -634,7 +634,7 @@
         <v>-13.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5800987514688722</v>
+        <v>0.5800987449892061</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -687,10 +687,10 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>6.941370044788568</v>
+        <v>6.941370125627985</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3563056204478834</v>
+        <v>0.3563056245974301</v>
       </c>
       <c r="G3" t="n">
         <v>-13.21</v>
@@ -705,7 +705,7 @@
         <v>-13.21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5425276625108567</v>
+        <v>0.5425276561925623</v>
       </c>
       <c r="L3" t="n">
         <v>0.08</v>
@@ -760,10 +760,10 @@
         <v>90.08</v>
       </c>
       <c r="E4" t="n">
-        <v>20.06614443981965</v>
+        <v>20.06614466395784</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7595227088575357</v>
+        <v>0.7595227173413802</v>
       </c>
       <c r="G4" t="n">
         <v>-13.21</v>
@@ -778,7 +778,7 @@
         <v>-13.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2387059039238457</v>
+        <v>0.2387059012575083</v>
       </c>
       <c r="L4" t="n">
         <v>0.13</v>
@@ -833,10 +833,10 @@
         <v>90.08</v>
       </c>
       <c r="E5" t="n">
-        <v>22.34089249430825</v>
+        <v>22.34089268642791</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8456240926831734</v>
+        <v>0.8456240999550857</v>
       </c>
       <c r="G5" t="n">
         <v>-13.21</v>
@@ -851,7 +851,7 @@
         <v>-13.21</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3703426488291691</v>
+        <v>0.3703426456444216</v>
       </c>
       <c r="L5" t="n">
         <v>0.14</v>
@@ -906,10 +906,10 @@
         <v>90.08</v>
       </c>
       <c r="E6" t="n">
-        <v>20.06614443981965</v>
+        <v>20.06614466395784</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7595227088575357</v>
+        <v>0.7595227173413802</v>
       </c>
       <c r="G6" t="n">
         <v>-13.21</v>
@@ -924,7 +924,7 @@
         <v>-13.21</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2387059039238457</v>
+        <v>0.2387059012575083</v>
       </c>
       <c r="L6" t="n">
         <v>0.13</v>
@@ -979,10 +979,10 @@
         <v>90.08</v>
       </c>
       <c r="E7" t="n">
-        <v>22.34089249430825</v>
+        <v>22.34089268642791</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8456240926831734</v>
+        <v>0.8456240999550857</v>
       </c>
       <c r="G7" t="n">
         <v>-13.21</v>
@@ -997,7 +997,7 @@
         <v>-13.21</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3703426488291691</v>
+        <v>0.3703426456444216</v>
       </c>
       <c r="L7" t="n">
         <v>0.14</v>
@@ -1052,10 +1052,10 @@
         <v>137.11</v>
       </c>
       <c r="E8" t="n">
-        <v>9.055951924829568</v>
+        <v>9.055952018579516</v>
       </c>
       <c r="F8" t="n">
-        <v>0.521737065160645</v>
+        <v>0.5217370705618246</v>
       </c>
       <c r="G8" t="n">
         <v>-13.21</v>
@@ -1070,7 +1070,7 @@
         <v>-13.21</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3535611162697625</v>
+        <v>0.3535611126095911</v>
       </c>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
@@ -1125,10 +1125,10 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697670245594</v>
+        <v>2.844697670245612</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995824094558</v>
+        <v>0.2800995824094576</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
@@ -1143,7 +1143,7 @@
         <v>-13.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4459930778203139</v>
+        <v>0.4459930778203111</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>12.8944378446668</v>
+        <v>12.89443800817266</v>
       </c>
       <c r="F10" t="n">
-        <v>0.488283498804935</v>
+        <v>0.488283504996536</v>
       </c>
       <c r="G10" t="n">
         <v>-13.21</v>
@@ -1214,7 +1214,7 @@
         <v>-13.21</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9974082223302524</v>
+        <v>0.9974082096827768</v>
       </c>
       <c r="L10" t="n">
         <v>0.11</v>
@@ -1269,10 +1269,10 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>11.19787294998664</v>
+        <v>11.19787340381384</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3487541611690804</v>
+        <v>0.3487541753033827</v>
       </c>
       <c r="G11" t="n">
         <v>-13.21</v>
@@ -1287,7 +1287,7 @@
         <v>-13.21</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7847593657794829</v>
+        <v>0.7847593339747708</v>
       </c>
       <c r="L11" t="n">
         <v>0.04</v>
@@ -1342,10 +1342,10 @@
         <v>146.1</v>
       </c>
       <c r="E12" t="n">
-        <v>12.48937108880209</v>
+        <v>12.48937108880212</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7667243171293706</v>
+        <v>0.7667243171293728</v>
       </c>
       <c r="G12" t="n">
         <v>-13.21</v>
@@ -1360,7 +1360,7 @@
         <v>-13.21</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3990386909380163</v>
+        <v>0.3990386909380151</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1413,10 +1413,10 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>7.096204221127857</v>
+        <v>7.096204298631618</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4864762418608935</v>
+        <v>0.4864762471741197</v>
       </c>
       <c r="G13" t="n">
         <v>-13.21</v>
@@ -1431,7 +1431,7 @@
         <v>-13.21</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4351111423546155</v>
+        <v>0.4351111376023918</v>
       </c>
       <c r="L13" t="n">
         <v>0.15</v>
@@ -1486,10 +1486,10 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>2.761960154328127</v>
+        <v>2.761960161636383</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2975663935774678</v>
+        <v>0.2975663943648403</v>
       </c>
       <c r="G14" t="n">
         <v>-13.21</v>
@@ -1504,7 +1504,7 @@
         <v>-13.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2594030863872557</v>
+        <v>0.2594030857008648</v>
       </c>
       <c r="L14" t="n">
         <v>0.1</v>
@@ -1559,10 +1559,10 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>2.677177417204605</v>
+        <v>2.677177440227001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2727280956668592</v>
+        <v>0.2727280980121854</v>
       </c>
       <c r="G15" t="n">
         <v>-13.21</v>
@@ -1577,7 +1577,7 @@
         <v>-13.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2720593940343134</v>
+        <v>0.2720593916947378</v>
       </c>
       <c r="L15" t="n">
         <v>0.005</v>
@@ -1632,10 +1632,10 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>12.5238538026001</v>
+        <v>12.52385380260018</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3900514094987304</v>
+        <v>0.3900514094987328</v>
       </c>
       <c r="G16" t="n">
         <v>-13.21</v>
@@ -1650,7 +1650,7 @@
         <v>-13.21</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9872554154549937</v>
+        <v>0.9872554154549874</v>
       </c>
       <c r="L16" t="n">
         <v>0.06</v>
@@ -1705,10 +1705,10 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>24.24659146894868</v>
+        <v>24.24659146894892</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9074664948630266</v>
+        <v>0.9074664948630357</v>
       </c>
       <c r="G17" t="n">
         <v>-13.21</v>
@@ -1723,7 +1723,7 @@
         <v>-13.21</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8724089016032093</v>
+        <v>0.8724089016032006</v>
       </c>
       <c r="L17" t="n">
         <v>0.6899999999999999</v>
@@ -1778,10 +1778,10 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>10.42241532098108</v>
+        <v>10.42241543739891</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6135132722286827</v>
+        <v>0.6135132790815938</v>
       </c>
       <c r="G18" t="n">
         <v>-13.21</v>
@@ -1796,7 +1796,7 @@
         <v>-13.21</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4612523037661422</v>
+        <v>0.4612522986139782</v>
       </c>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
@@ -1851,10 +1851,10 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969093061921526</v>
+        <v>3.969093063101203</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540541212621765</v>
+        <v>0.4540541213971285</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
@@ -1869,7 +1869,7 @@
         <v>-13.21</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2713272712592787</v>
+        <v>0.271327271178636</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1922,10 +1922,10 @@
         <v>268.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09996363266789167</v>
+        <v>0.09996363389292853</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2355252527240741</v>
+        <v>0.235525255610395</v>
       </c>
       <c r="G20" t="n">
         <v>-0.332925</v>
@@ -1940,7 +1940,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K20" t="n">
-        <v>1.008269443564308</v>
+        <v>1.008269431208142</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -2009,10 +2009,10 @@
         <v>242.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.114167371871854</v>
+        <v>0.1141673758657095</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2428831784355429</v>
+        <v>0.2428831869321939</v>
       </c>
       <c r="G21" t="n">
         <v>-0.332925</v>
@@ -2027,7 +2027,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K21" t="n">
-        <v>1.007992630508971</v>
+        <v>1.00799259524691</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -2092,10 +2092,10 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>12.48937108880229</v>
+        <v>12.48937153880215</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5410628137990376</v>
+        <v>0.5410628332938695</v>
       </c>
       <c r="G22" t="n">
         <v>-13.21</v>
@@ -2110,7 +2110,7 @@
         <v>-13.21</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3818254643828795</v>
+        <v>0.3818254506254695</v>
       </c>
       <c r="L22" t="n">
         <v>0.13</v>
@@ -2165,10 +2165,10 @@
         <v>329.4</v>
       </c>
       <c r="E23" t="n">
-        <v>2.511143887422177</v>
+        <v>2.511143895123665</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3475710892081204</v>
+        <v>0.3475710902740945</v>
       </c>
       <c r="G23" t="n">
         <v>-13.21</v>
@@ -2183,7 +2183,7 @@
         <v>-13.21</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1959094385288666</v>
+        <v>0.1959094379280272</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2236,10 +2236,10 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>3.96909303424228</v>
+        <v>3.969093061921534</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3806549565258843</v>
+        <v>0.3806549591804568</v>
       </c>
       <c r="G24" t="n">
         <v>-13.21</v>
@@ -2254,7 +2254,7 @@
         <v>-13.21</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2713282279411472</v>
+        <v>0.2713282260489863</v>
       </c>
       <c r="L24" t="n">
         <v>0.0002</v>
@@ -2309,10 +2309,10 @@
         <v>246.3</v>
       </c>
       <c r="E25" t="n">
-        <v>2.957467015229745</v>
+        <v>2.957467113780485</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3060784639564738</v>
+        <v>0.3060784741558298</v>
       </c>
       <c r="G25" t="n">
         <v>-13.21</v>
@@ -2327,7 +2327,7 @@
         <v>-13.21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4476413612563981</v>
+        <v>0.4476413463397868</v>
       </c>
       <c r="L25" t="n">
         <v>0.003</v>
@@ -2382,10 +2382,10 @@
         <v>174.15</v>
       </c>
       <c r="E26" t="n">
-        <v>9.725652288380664</v>
+        <v>9.725652288380617</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7116896813834993</v>
+        <v>0.711689681383496</v>
       </c>
       <c r="G26" t="n">
         <v>-13.21</v>
@@ -2400,7 +2400,7 @@
         <v>-13.21</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4692139917052498</v>
+        <v>0.469213991705252</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2453,10 +2453,10 @@
         <v>270.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1013955785655886</v>
+        <v>0.101395582263834</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2406785828175028</v>
+        <v>0.2406785915958784</v>
       </c>
       <c r="G27" t="n">
         <v>-0.332925</v>
@@ -2471,7 +2471,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K27" t="n">
-        <v>1.008402006346098</v>
+        <v>1.008401969566211</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2536,10 +2536,10 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>6.766253948281869</v>
+        <v>6.766253948281854</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2961120081300709</v>
+        <v>0.2961120081300702</v>
       </c>
       <c r="G28" t="n">
         <v>-13.21</v>
@@ -2554,7 +2554,7 @@
         <v>-13.21</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4418733056202847</v>
+        <v>0.4418733056202857</v>
       </c>
       <c r="L28" t="n">
         <v>0.001</v>
@@ -2609,10 +2609,10 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1308423118282197</v>
+        <v>0.1308423284963125</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2719810456277346</v>
+        <v>0.2719810802755884</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
@@ -2627,7 +2627,7 @@
         <v>-2.201133727157571</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4515292272393641</v>
+        <v>0.4515291697187504</v>
       </c>
       <c r="L29" t="n">
         <v>0.14</v>
@@ -2694,10 +2694,10 @@
         <v>126.11004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007105611207608455</v>
+        <v>0.007105612009973482</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06718413215330893</v>
+        <v>0.06718413973973555</v>
       </c>
       <c r="G30" t="n">
         <v>-0.078476895921783</v>

--- a/application/output_max_withoutMP/compiled_results.xlsx
+++ b/application/output_max_withoutMP/compiled_results.xlsx
@@ -616,10 +616,10 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382230371743</v>
+        <v>17.81382266698288</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5695516989363105</v>
+        <v>0.5695517105508002</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
@@ -634,7 +634,7 @@
         <v>-13.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5800987449892061</v>
+        <v>0.5800987331596378</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -687,10 +687,10 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>6.941370125627985</v>
+        <v>6.941370261962294</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3563056245974301</v>
+        <v>0.3563056315955702</v>
       </c>
       <c r="G3" t="n">
         <v>-13.21</v>
@@ -705,7 +705,7 @@
         <v>-13.21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5425276561925623</v>
+        <v>0.5425276455368662</v>
       </c>
       <c r="L3" t="n">
         <v>0.08</v>
@@ -760,10 +760,10 @@
         <v>90.08</v>
       </c>
       <c r="E4" t="n">
-        <v>20.06614466395784</v>
+        <v>20.06614507315321</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7595227173413802</v>
+        <v>0.7595227328298153</v>
       </c>
       <c r="G4" t="n">
         <v>-13.21</v>
@@ -778,7 +778,7 @@
         <v>-13.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2387059012575083</v>
+        <v>0.2387058963897398</v>
       </c>
       <c r="L4" t="n">
         <v>0.13</v>
@@ -833,10 +833,10 @@
         <v>90.08</v>
       </c>
       <c r="E5" t="n">
-        <v>22.34089268642791</v>
+        <v>22.34089323932462</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8456240999550857</v>
+        <v>0.8456241208827535</v>
       </c>
       <c r="G5" t="n">
         <v>-13.21</v>
@@ -851,7 +851,7 @@
         <v>-13.21</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3703426456444216</v>
+        <v>0.3703426364791108</v>
       </c>
       <c r="L5" t="n">
         <v>0.14</v>
@@ -906,10 +906,10 @@
         <v>90.08</v>
       </c>
       <c r="E6" t="n">
-        <v>20.06614466395784</v>
+        <v>20.06614507315321</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7595227173413802</v>
+        <v>0.7595227328298153</v>
       </c>
       <c r="G6" t="n">
         <v>-13.21</v>
@@ -924,7 +924,7 @@
         <v>-13.21</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2387059012575083</v>
+        <v>0.2387058963897398</v>
       </c>
       <c r="L6" t="n">
         <v>0.13</v>
@@ -979,10 +979,10 @@
         <v>90.08</v>
       </c>
       <c r="E7" t="n">
-        <v>22.34089268642791</v>
+        <v>22.34089323932462</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8456240999550857</v>
+        <v>0.8456241208827535</v>
       </c>
       <c r="G7" t="n">
         <v>-13.21</v>
@@ -997,7 +997,7 @@
         <v>-13.21</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3703426456444216</v>
+        <v>0.3703426364791108</v>
       </c>
       <c r="L7" t="n">
         <v>0.14</v>
@@ -1052,10 +1052,10 @@
         <v>137.11</v>
       </c>
       <c r="E8" t="n">
-        <v>9.055952018579516</v>
+        <v>9.055952191748684</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5217370705618246</v>
+        <v>0.5217370805385532</v>
       </c>
       <c r="G8" t="n">
         <v>-13.21</v>
@@ -1070,7 +1070,7 @@
         <v>-13.21</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3535611126095911</v>
+        <v>0.3535611058487466</v>
       </c>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
@@ -1125,10 +1125,10 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697670245612</v>
+        <v>2.8446977520824</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995824094576</v>
+        <v>0.2800995904674141</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
@@ -1143,7 +1143,7 @@
         <v>-13.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4459930778203111</v>
+        <v>0.4459930649899002</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>12.89443800817266</v>
+        <v>12.89443786899621</v>
       </c>
       <c r="F10" t="n">
-        <v>0.488283504996536</v>
+        <v>0.4882834997262354</v>
       </c>
       <c r="G10" t="n">
         <v>-13.21</v>
@@ -1214,7 +1214,7 @@
         <v>-13.21</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9974082096827768</v>
+        <v>0.997408220448328</v>
       </c>
       <c r="L10" t="n">
         <v>0.11</v>
@@ -1269,10 +1269,10 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>11.19787340381384</v>
+        <v>11.1978733226628</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3487541753033827</v>
+        <v>0.3487541727759596</v>
       </c>
       <c r="G11" t="n">
         <v>-13.21</v>
@@ -1287,7 +1287,7 @@
         <v>-13.21</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7847593339747708</v>
+        <v>0.7847593396619253</v>
       </c>
       <c r="L11" t="n">
         <v>0.04</v>
@@ -1342,10 +1342,10 @@
         <v>146.1</v>
       </c>
       <c r="E12" t="n">
-        <v>12.48937108880212</v>
+        <v>12.48937153880213</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7667243171293728</v>
+        <v>0.7667243447549389</v>
       </c>
       <c r="G12" t="n">
         <v>-13.21</v>
@@ -1360,7 +1360,7 @@
         <v>-13.21</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3990386909380151</v>
+        <v>0.3990386765603972</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1413,10 +1413,10 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>7.096204298631618</v>
+        <v>7.096204443792231</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4864762471741197</v>
+        <v>0.4864762571255229</v>
       </c>
       <c r="G13" t="n">
         <v>-13.21</v>
@@ -1431,7 +1431,7 @@
         <v>-13.21</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4351111376023918</v>
+        <v>0.4351111287017182</v>
       </c>
       <c r="L13" t="n">
         <v>0.15</v>
@@ -1486,10 +1486,10 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>2.761960161636383</v>
+        <v>2.761960230576627</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2975663943648403</v>
+        <v>0.2975664017922826</v>
       </c>
       <c r="G14" t="n">
         <v>-13.21</v>
@@ -1504,7 +1504,7 @@
         <v>-13.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2594030857008648</v>
+        <v>0.2594030792260025</v>
       </c>
       <c r="L14" t="n">
         <v>0.1</v>
@@ -1559,10 +1559,10 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>2.677177440227001</v>
+        <v>2.677177506303691</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2727280980121854</v>
+        <v>0.2727281047435173</v>
       </c>
       <c r="G15" t="n">
         <v>-13.21</v>
@@ -1577,7 +1577,7 @@
         <v>-13.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2720593916947378</v>
+        <v>0.2720593849799107</v>
       </c>
       <c r="L15" t="n">
         <v>0.005</v>
@@ -1632,10 +1632,10 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>12.52385380260018</v>
+        <v>12.52385415259966</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3900514094987328</v>
+        <v>0.3900514203993543</v>
       </c>
       <c r="G16" t="n">
         <v>-13.21</v>
@@ -1650,7 +1650,7 @@
         <v>-13.21</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9872554154549874</v>
+        <v>0.9872553878645289</v>
       </c>
       <c r="L16" t="n">
         <v>0.06</v>
@@ -1705,10 +1705,10 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>24.24659146894892</v>
+        <v>24.24659196339342</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9074664948630357</v>
+        <v>0.9074665133683922</v>
       </c>
       <c r="G17" t="n">
         <v>-13.21</v>
@@ -1723,7 +1723,7 @@
         <v>-13.21</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8724089016032006</v>
+        <v>0.8724088838127504</v>
       </c>
       <c r="L17" t="n">
         <v>0.6899999999999999</v>
@@ -1778,10 +1778,10 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>10.42241543739891</v>
+        <v>10.42241564706572</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6135132790815938</v>
+        <v>0.6135132914235861</v>
       </c>
       <c r="G18" t="n">
         <v>-13.21</v>
@@ -1796,7 +1796,7 @@
         <v>-13.21</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4612522986139782</v>
+        <v>0.4612522893350067</v>
       </c>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
@@ -1851,10 +1851,10 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969093063101203</v>
+        <v>3.96909316610889</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540541213971285</v>
+        <v>0.4540541331809452</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
@@ -1869,7 +1869,7 @@
         <v>-13.21</v>
       </c>
       <c r="K19" t="n">
-        <v>0.271327271178636</v>
+        <v>0.2713272641370289</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1922,10 +1922,10 @@
         <v>268.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09996363389292853</v>
+        <v>0.09996683862160761</v>
       </c>
       <c r="F20" t="n">
-        <v>0.235525255610395</v>
+        <v>0.2355328063017005</v>
       </c>
       <c r="G20" t="n">
         <v>-0.332925</v>
@@ -1940,7 +1940,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K20" t="n">
-        <v>1.008269431208142</v>
+        <v>1.008237108189759</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -2009,10 +2009,10 @@
         <v>242.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1141673758657095</v>
+        <v>0.1141710361216055</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2428831869321939</v>
+        <v>0.2428909738731678</v>
       </c>
       <c r="G21" t="n">
         <v>-0.332925</v>
@@ -2027,7 +2027,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K21" t="n">
-        <v>1.00799259524691</v>
+        <v>1.007960279600445</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -2092,10 +2092,10 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>12.48937153880215</v>
+        <v>12.48937153880213</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5410628332938695</v>
+        <v>0.5410628332938684</v>
       </c>
       <c r="G22" t="n">
         <v>-13.21</v>
@@ -2110,7 +2110,7 @@
         <v>-13.21</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3818254506254695</v>
+        <v>0.3818254506254702</v>
       </c>
       <c r="L22" t="n">
         <v>0.13</v>
@@ -2165,10 +2165,10 @@
         <v>329.4</v>
       </c>
       <c r="E23" t="n">
-        <v>2.511143895123665</v>
+        <v>2.511143938761768</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3475710902740945</v>
+        <v>0.347571096314108</v>
       </c>
       <c r="G23" t="n">
         <v>-13.21</v>
@@ -2183,7 +2183,7 @@
         <v>-13.21</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1959094379280272</v>
+        <v>0.1959094345235564</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2236,10 +2236,10 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>3.969093061921534</v>
+        <v>3.969093165426386</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3806549591804568</v>
+        <v>0.3806549691070659</v>
       </c>
       <c r="G24" t="n">
         <v>-13.21</v>
@@ -2254,7 +2254,7 @@
         <v>-13.21</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2713282260489863</v>
+        <v>0.2713282189733681</v>
       </c>
       <c r="L24" t="n">
         <v>0.0002</v>
@@ -2309,10 +2309,10 @@
         <v>246.3</v>
       </c>
       <c r="E25" t="n">
-        <v>2.957467113780485</v>
+        <v>2.957467099771051</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3060784741558298</v>
+        <v>0.3060784727059451</v>
       </c>
       <c r="G25" t="n">
         <v>-13.21</v>
@@ -2327,7 +2327,7 @@
         <v>-13.21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4476413463397868</v>
+        <v>0.4476413484602507</v>
       </c>
       <c r="L25" t="n">
         <v>0.003</v>
@@ -2382,10 +2382,10 @@
         <v>174.15</v>
       </c>
       <c r="E26" t="n">
-        <v>9.725652288380617</v>
+        <v>9.725652483182481</v>
       </c>
       <c r="F26" t="n">
-        <v>0.711689681383496</v>
+        <v>0.7116896956384242</v>
       </c>
       <c r="G26" t="n">
         <v>-13.21</v>
@@ -2400,7 +2400,7 @@
         <v>-13.21</v>
       </c>
       <c r="K26" t="n">
-        <v>0.469213991705252</v>
+        <v>0.4692139823070384</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2453,10 +2453,10 @@
         <v>270.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.101395582263834</v>
+        <v>0.1013988328992703</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2406785915958784</v>
+        <v>0.2406863074977069</v>
       </c>
       <c r="G27" t="n">
         <v>-0.332925</v>
@@ -2471,7 +2471,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K27" t="n">
-        <v>1.008401969566211</v>
+        <v>1.008369642298898</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2536,10 +2536,10 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>6.766253948281854</v>
+        <v>6.766254088154464</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2961120081300702</v>
+        <v>0.2961120142513243</v>
       </c>
       <c r="G28" t="n">
         <v>-13.21</v>
@@ -2554,7 +2554,7 @@
         <v>-13.21</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4418733056202857</v>
+        <v>0.4418732964858411</v>
       </c>
       <c r="L28" t="n">
         <v>0.001</v>
@@ -2609,10 +2609,10 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1308423284963125</v>
+        <v>0.1308412072971918</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2719810802755884</v>
+        <v>0.2719787496464139</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
@@ -2627,7 +2627,7 @@
         <v>-2.201133727157571</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4515291697187504</v>
+        <v>0.4515330389440391</v>
       </c>
       <c r="L29" t="n">
         <v>0.14</v>
@@ -2694,10 +2694,10 @@
         <v>126.11004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007105612009973482</v>
+        <v>0.00710568005981288</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06718413973973555</v>
+        <v>0.06718478315650429</v>
       </c>
       <c r="G30" t="n">
         <v>-0.078476895921783</v>

--- a/application/output_max_withoutMP/compiled_results.xlsx
+++ b/application/output_max_withoutMP/compiled_results.xlsx
@@ -616,25 +616,25 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382266698288</v>
+        <v>17.81382212023962</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5695517105508002</v>
+        <v>0.5695516930700739</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
       </c>
       <c r="H2" t="n">
-        <v>10.33377596184721</v>
+        <v>10.33594910460783</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3303962257594239</v>
+        <v>0.330465706476714</v>
       </c>
       <c r="J2" t="n">
         <v>-13.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5800987331596378</v>
+        <v>0.5802207429063961</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -654,11 +654,11 @@
       </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>10.33377596184721</v>
+        <v>10.33594910460783</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>0.3303962257594239</v>
+        <v>0.330465706476714</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -687,25 +687,25 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>6.941370261962294</v>
+        <v>6.941370050829049</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3563056315955702</v>
+        <v>0.3563056207579458</v>
       </c>
       <c r="G3" t="n">
         <v>-13.21</v>
       </c>
       <c r="H3" t="n">
-        <v>3.765885265022023</v>
+        <v>3.766823882528126</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1933056554010707</v>
+        <v>0.1933538353267507</v>
       </c>
       <c r="J3" t="n">
         <v>-13.21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5425276455368662</v>
+        <v>0.5426628828235762</v>
       </c>
       <c r="L3" t="n">
         <v>0.08</v>
@@ -727,11 +727,11 @@
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>3.765885265022023</v>
+        <v>3.766823882528126</v>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>0.1933056554010707</v>
+        <v>0.1933538353267507</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
@@ -760,25 +760,25 @@
         <v>90.08</v>
       </c>
       <c r="E4" t="n">
-        <v>20.06614507315321</v>
+        <v>20.06614445553155</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7595227328298153</v>
+        <v>0.7595227094522464</v>
       </c>
       <c r="G4" t="n">
         <v>-13.21</v>
       </c>
       <c r="H4" t="n">
-        <v>4.789907146773598</v>
+        <v>4.791077807930754</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1813025547685259</v>
+        <v>0.1813468654100596</v>
       </c>
       <c r="J4" t="n">
         <v>-13.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2387058963897398</v>
+        <v>0.2387642438510412</v>
       </c>
       <c r="L4" t="n">
         <v>0.13</v>
@@ -800,11 +800,11 @@
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>4.789907146773598</v>
+        <v>4.791077807930754</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>0.1813025547685259</v>
+        <v>0.1813468654100596</v>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
@@ -833,25 +833,25 @@
         <v>90.08</v>
       </c>
       <c r="E5" t="n">
-        <v>22.34089323932462</v>
+        <v>22.3408925077748</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8456241208827535</v>
+        <v>0.8456240931928949</v>
       </c>
       <c r="G5" t="n">
         <v>-13.21</v>
       </c>
       <c r="H5" t="n">
-        <v>8.273785303549822</v>
+        <v>8.275594561880407</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3131706663980492</v>
+        <v>0.3132391485517779</v>
       </c>
       <c r="J5" t="n">
         <v>-13.21</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3703426364791108</v>
+        <v>0.3704236327622291</v>
       </c>
       <c r="L5" t="n">
         <v>0.14</v>
@@ -873,11 +873,11 @@
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>8.273785303549822</v>
+        <v>8.275594561880407</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>0.3131706663980492</v>
+        <v>0.3132391485517779</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
@@ -906,25 +906,25 @@
         <v>90.08</v>
       </c>
       <c r="E6" t="n">
-        <v>20.06614507315321</v>
+        <v>20.06614445553155</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7595227328298153</v>
+        <v>0.7595227094522464</v>
       </c>
       <c r="G6" t="n">
         <v>-13.21</v>
       </c>
       <c r="H6" t="n">
-        <v>4.789907146773598</v>
+        <v>4.791077807930754</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1813025547685259</v>
+        <v>0.1813468654100596</v>
       </c>
       <c r="J6" t="n">
         <v>-13.21</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2387058963897398</v>
+        <v>0.2387642438510412</v>
       </c>
       <c r="L6" t="n">
         <v>0.13</v>
@@ -946,11 +946,11 @@
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>4.789907146773598</v>
+        <v>4.791077807930754</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>0.1813025547685259</v>
+        <v>0.1813468654100596</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
@@ -979,25 +979,25 @@
         <v>90.08</v>
       </c>
       <c r="E7" t="n">
-        <v>22.34089323932462</v>
+        <v>22.3408925077748</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8456241208827535</v>
+        <v>0.8456240931928949</v>
       </c>
       <c r="G7" t="n">
         <v>-13.21</v>
       </c>
       <c r="H7" t="n">
-        <v>8.273785303549822</v>
+        <v>8.275594561880407</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3131706663980492</v>
+        <v>0.3132391485517779</v>
       </c>
       <c r="J7" t="n">
         <v>-13.21</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3703426364791108</v>
+        <v>0.3704236327622291</v>
       </c>
       <c r="L7" t="n">
         <v>0.14</v>
@@ -1019,11 +1019,11 @@
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>8.273785303549822</v>
+        <v>8.275594561880407</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>0.3131706663980492</v>
+        <v>0.3132391485517779</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1052,25 +1052,25 @@
         <v>137.11</v>
       </c>
       <c r="E8" t="n">
-        <v>9.055952191748684</v>
+        <v>9.055951931401262</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5217370805385532</v>
+        <v>0.5217370655392575</v>
       </c>
       <c r="G8" t="n">
         <v>-13.21</v>
       </c>
       <c r="H8" t="n">
-        <v>3.201832471428046</v>
+        <v>3.202635267542847</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1844659391575074</v>
+        <v>0.1845121903404129</v>
       </c>
       <c r="J8" t="n">
         <v>-13.21</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3535611058487466</v>
+        <v>0.3536497644646057</v>
       </c>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
@@ -1092,11 +1092,11 @@
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>3.201832471428046</v>
+        <v>3.202635267542847</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>0.1844659391575074</v>
+        <v>0.1845121903404129</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
@@ -1125,25 +1125,25 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.8446977520824</v>
+        <v>2.844697655376507</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995904674141</v>
+        <v>0.2800995809453898</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
       </c>
       <c r="H9" t="n">
-        <v>1.268715469421109</v>
+        <v>1.26906454502506</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1249224748549778</v>
+        <v>0.1249568461457898</v>
       </c>
       <c r="J9" t="n">
         <v>-13.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4459930649899002</v>
+        <v>0.4461157911198456</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1163,11 +1163,11 @@
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>1.268715469421109</v>
+        <v>1.26906454502506</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>0.1249224748549778</v>
+        <v>0.1249568461457898</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
@@ -1196,25 +1196,25 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>12.89443786899621</v>
+        <v>12.89443784637229</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4882834997262354</v>
+        <v>0.4882834988695184</v>
       </c>
       <c r="G10" t="n">
         <v>-13.21</v>
       </c>
       <c r="H10" t="n">
-        <v>12.86101832859704</v>
+        <v>12.86104513542536</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4870179765362261</v>
+        <v>0.4870189916508114</v>
       </c>
       <c r="J10" t="n">
         <v>-13.21</v>
       </c>
       <c r="K10" t="n">
-        <v>0.997408220448328</v>
+        <v>0.9974103011434248</v>
       </c>
       <c r="L10" t="n">
         <v>0.11</v>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>12.86101832859704</v>
+        <v>12.86104513542536</v>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>0.4870179765362261</v>
+        <v>0.4870189916508114</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
@@ -1269,25 +1269,25 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>11.1978733226628</v>
+        <v>11.19787295673656</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3487541727759596</v>
+        <v>0.3487541613793045</v>
       </c>
       <c r="G11" t="n">
         <v>-13.21</v>
       </c>
       <c r="H11" t="n">
-        <v>8.787635674310746</v>
+        <v>8.788049471121706</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2736880943320031</v>
+        <v>0.2737009819009499</v>
       </c>
       <c r="J11" t="n">
         <v>-13.21</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7847593396619253</v>
+        <v>0.7847963184682207</v>
       </c>
       <c r="L11" t="n">
         <v>0.04</v>
@@ -1309,11 +1309,11 @@
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>8.787635674310746</v>
+        <v>8.788049471121706</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>0.2736880943320031</v>
+        <v>0.2737009819009499</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
@@ -1342,25 +1342,25 @@
         <v>146.1</v>
       </c>
       <c r="E12" t="n">
-        <v>12.48937153880213</v>
+        <v>12.48937108880216</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7667243447549389</v>
+        <v>0.7667243171293748</v>
       </c>
       <c r="G12" t="n">
         <v>-13.21</v>
       </c>
       <c r="H12" t="n">
-        <v>4.983742289914693</v>
+        <v>4.98485860343459</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3059526678176485</v>
+        <v>0.3060211984678438</v>
       </c>
       <c r="J12" t="n">
         <v>-13.21</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3990386765603972</v>
+        <v>0.3991280720214939</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1380,11 +1380,11 @@
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>4.983742289914693</v>
+        <v>4.98485860343459</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>0.3059526678176485</v>
+        <v>0.3060211984678438</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
@@ -1413,25 +1413,25 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>7.096204443792231</v>
+        <v>7.0962042261573</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4864762571255229</v>
+        <v>0.4864762422056842</v>
       </c>
       <c r="G13" t="n">
         <v>-13.21</v>
       </c>
       <c r="H13" t="n">
-        <v>3.087637525036586</v>
+        <v>3.088405909928811</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2116712333244736</v>
+        <v>0.2117239095134648</v>
       </c>
       <c r="J13" t="n">
         <v>-13.21</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4351111287017182</v>
+        <v>0.4352194231593061</v>
       </c>
       <c r="L13" t="n">
         <v>0.15</v>
@@ -1453,11 +1453,11 @@
       </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>3.087637525036586</v>
+        <v>3.088405909928811</v>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>0.2116712333244736</v>
+        <v>0.2117239095134648</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
@@ -1486,25 +1486,25 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>2.761960230576627</v>
+        <v>2.76196014032085</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2975664017922826</v>
+        <v>0.2975663920683603</v>
       </c>
       <c r="G14" t="n">
         <v>-13.21</v>
       </c>
       <c r="H14" t="n">
-        <v>0.716460988511337</v>
+        <v>0.716647387847187</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07718964089911999</v>
+        <v>0.07720972307809248</v>
       </c>
       <c r="J14" t="n">
         <v>-13.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2594030792260025</v>
+        <v>0.2594705757643323</v>
       </c>
       <c r="L14" t="n">
         <v>0.1</v>
@@ -1526,11 +1526,11 @@
       </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="n">
-        <v>0.716460988511337</v>
+        <v>0.716647387847187</v>
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
-        <v>0.07718964089911999</v>
+        <v>0.07720972307809248</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
@@ -1559,25 +1559,25 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>2.677177506303691</v>
+        <v>2.677177418561634</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2727281047435173</v>
+        <v>0.2727280958051019</v>
       </c>
       <c r="G15" t="n">
         <v>-13.21</v>
       </c>
       <c r="H15" t="n">
-        <v>0.728351265847033</v>
+        <v>0.728545066263168</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07419824044325798</v>
+        <v>0.0742179831835382</v>
       </c>
       <c r="J15" t="n">
         <v>-13.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2720593849799107</v>
+        <v>0.2721317837256348</v>
       </c>
       <c r="L15" t="n">
         <v>0.005</v>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>0.728351265847033</v>
+        <v>0.728545066263168</v>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>0.07419824044325798</v>
+        <v>0.0742179831835382</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
@@ -1632,25 +1632,25 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>12.52385415259966</v>
+        <v>12.52385380260014</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3900514203993543</v>
+        <v>0.3900514094987315</v>
       </c>
       <c r="G16" t="n">
         <v>-13.21</v>
       </c>
       <c r="H16" t="n">
-        <v>12.36424248898357</v>
+        <v>12.36449516216495</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3850803663334749</v>
+        <v>0.385088235758661</v>
       </c>
       <c r="J16" t="n">
         <v>-13.21</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9872553878645289</v>
+        <v>0.987275590808789</v>
       </c>
       <c r="L16" t="n">
         <v>0.06</v>
@@ -1672,11 +1672,11 @@
       </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="n">
-        <v>12.36424248898357</v>
+        <v>12.36449516216495</v>
       </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
-        <v>0.3850803663334749</v>
+        <v>0.385088235758661</v>
       </c>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
@@ -1705,25 +1705,25 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>24.24659196339342</v>
+        <v>24.24659121710067</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9074665133683922</v>
+        <v>0.9074664854372223</v>
       </c>
       <c r="G17" t="n">
         <v>-13.21</v>
       </c>
       <c r="H17" t="n">
-        <v>21.15294223104726</v>
+        <v>21.15780961872868</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7916818480251674</v>
+        <v>0.7918640175991489</v>
       </c>
       <c r="J17" t="n">
         <v>-13.21</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8724088838127504</v>
+        <v>0.8726096559010932</v>
       </c>
       <c r="L17" t="n">
         <v>0.6899999999999999</v>
@@ -1745,11 +1745,11 @@
       </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="n">
-        <v>21.15294223104726</v>
+        <v>21.15780961872868</v>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
-        <v>0.7916818480251674</v>
+        <v>0.7918640175991489</v>
       </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
@@ -1778,25 +1778,25 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>10.42241564706572</v>
+        <v>10.42241533005079</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6135132914235861</v>
+        <v>0.613513272762569</v>
       </c>
       <c r="G18" t="n">
         <v>-13.21</v>
       </c>
       <c r="H18" t="n">
-        <v>4.807363077610059</v>
+        <v>4.808491230001707</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2829844102065842</v>
+        <v>0.2830508186583736</v>
       </c>
       <c r="J18" t="n">
         <v>-13.21</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4612522893350067</v>
+        <v>0.4613605462581652</v>
       </c>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
@@ -1818,11 +1818,11 @@
       </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>4.807363077610059</v>
+        <v>4.808491230001707</v>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
-        <v>0.2829844102065842</v>
+        <v>0.2830508186583736</v>
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
@@ -1851,25 +1851,25 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.96909316610889</v>
+        <v>3.969093036182524</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540541331809452</v>
+        <v>0.4540541183177003</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
       </c>
       <c r="H19" t="n">
-        <v>1.076923189865303</v>
+        <v>1.077155928499726</v>
       </c>
       <c r="I19" t="n">
-        <v>0.123197265726096</v>
+        <v>0.1232238904321656</v>
       </c>
       <c r="J19" t="n">
         <v>-13.21</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2713272641370289</v>
+        <v>0.2713859107560088</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1889,11 +1889,11 @@
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
-        <v>1.076923189865303</v>
+        <v>1.077155928499726</v>
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
-        <v>0.123197265726096</v>
+        <v>0.1232238904321656</v>
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
@@ -1922,25 +1922,25 @@
         <v>268.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09996683862160761</v>
+        <v>0.09996364001457181</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2355328063017005</v>
+        <v>0.2355252700336561</v>
       </c>
       <c r="G20" t="n">
         <v>-0.332925</v>
       </c>
       <c r="H20" t="n">
-        <v>0.100790276286722</v>
+        <v>0.100792269927017</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2374729155094452</v>
+        <v>0.2374776127440473</v>
       </c>
       <c r="J20" t="n">
         <v>-0.332925</v>
       </c>
       <c r="K20" t="n">
-        <v>1.008237108189759</v>
+        <v>1.008289313117494</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1968,11 +1968,11 @@
       </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="n">
-        <v>0.100790276286722</v>
+        <v>0.100792269927017</v>
       </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
-        <v>0.2374729155094452</v>
+        <v>0.2374776127440473</v>
       </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="n">
@@ -2009,25 +2009,25 @@
         <v>242.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1141710361216055</v>
+        <v>0.1141673836281253</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2428909738731678</v>
+        <v>0.242883203446196</v>
       </c>
       <c r="G21" t="n">
         <v>-0.332925</v>
       </c>
       <c r="H21" t="n">
-        <v>0.115079869491406</v>
+        <v>0.115082140347757</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2448244539376226</v>
+        <v>0.2448292850272698</v>
       </c>
       <c r="J21" t="n">
         <v>-0.332925</v>
       </c>
       <c r="K21" t="n">
-        <v>1.007960279600445</v>
+        <v>1.008012417299597</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -2051,11 +2051,11 @@
       </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="n">
-        <v>0.115079869491406</v>
+        <v>0.115082140347757</v>
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
-        <v>0.2448244539376226</v>
+        <v>0.2448292850272698</v>
       </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="n">
@@ -2092,25 +2092,25 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>12.48937153880213</v>
+        <v>12.48937108880215</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5410628332938684</v>
+        <v>0.5410628137990313</v>
       </c>
       <c r="G22" t="n">
         <v>-13.21</v>
       </c>
       <c r="H22" t="n">
-        <v>4.768759915832044</v>
+        <v>4.769949252897912</v>
       </c>
       <c r="I22" t="n">
-        <v>0.206591560139125</v>
+        <v>0.2066430844356519</v>
       </c>
       <c r="J22" t="n">
         <v>-13.21</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3818254506254702</v>
+        <v>0.3819206923216978</v>
       </c>
       <c r="L22" t="n">
         <v>0.13</v>
@@ -2132,11 +2132,11 @@
       </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>4.768759915832044</v>
+        <v>4.769949252897912</v>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
-        <v>0.206591560139125</v>
+        <v>0.2066430844356519</v>
       </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
@@ -2165,25 +2165,25 @@
         <v>329.4</v>
       </c>
       <c r="E23" t="n">
-        <v>2.511143938761768</v>
+        <v>2.511143874209327</v>
       </c>
       <c r="F23" t="n">
-        <v>0.347571096314108</v>
+        <v>0.3475710873793104</v>
       </c>
       <c r="G23" t="n">
         <v>-13.21</v>
       </c>
       <c r="H23" t="n">
-        <v>0.491956789050074</v>
+        <v>0.492166192311695</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06809245693562944</v>
+        <v>0.06812144074658903</v>
       </c>
       <c r="J23" t="n">
         <v>-13.21</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1959094345235564</v>
+        <v>0.1959928291510822</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2203,11 +2203,11 @@
       </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="n">
-        <v>0.491956789050074</v>
+        <v>0.492166192311695</v>
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
-        <v>0.06809245693562944</v>
+        <v>0.06812144074658903</v>
       </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
@@ -2236,25 +2236,25 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>3.969093165426386</v>
+        <v>3.969093035873841</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3806549691070659</v>
+        <v>0.3806549566823588</v>
       </c>
       <c r="G24" t="n">
         <v>-13.21</v>
       </c>
       <c r="H24" t="n">
-        <v>1.076926979514509</v>
+        <v>1.077170959236482</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1032824348111826</v>
+        <v>0.1033058336304241</v>
       </c>
       <c r="J24" t="n">
         <v>-13.21</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2713282189733681</v>
+        <v>0.2713896977220466</v>
       </c>
       <c r="L24" t="n">
         <v>0.0002</v>
@@ -2276,11 +2276,11 @@
       </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="n">
-        <v>1.076926979514509</v>
+        <v>1.077170959236482</v>
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
-        <v>0.1032824348111826</v>
+        <v>0.1033058336304241</v>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
@@ -2309,25 +2309,25 @@
         <v>246.3</v>
       </c>
       <c r="E25" t="n">
-        <v>2.957467099771051</v>
+        <v>2.957466999770999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3060784727059451</v>
+        <v>0.3060784623565949</v>
       </c>
       <c r="G25" t="n">
         <v>-13.21</v>
       </c>
       <c r="H25" t="n">
-        <v>1.32388456056834</v>
+        <v>1.324232449482202</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1370133802567433</v>
+        <v>0.137049384480572</v>
       </c>
       <c r="J25" t="n">
         <v>-13.21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4476413484602507</v>
+        <v>0.4477589942963823</v>
       </c>
       <c r="L25" t="n">
         <v>0.003</v>
@@ -2349,11 +2349,11 @@
       </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="n">
-        <v>1.32388456056834</v>
+        <v>1.324232449482202</v>
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
-        <v>0.1370133802567433</v>
+        <v>0.137049384480572</v>
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
@@ -2382,25 +2382,25 @@
         <v>174.15</v>
       </c>
       <c r="E26" t="n">
-        <v>9.725652483182481</v>
+        <v>9.725652187360838</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7116896956384242</v>
+        <v>0.7116896739912171</v>
       </c>
       <c r="G26" t="n">
         <v>-13.21</v>
       </c>
       <c r="H26" t="n">
-        <v>4.563412132168388</v>
+        <v>4.564520517187828</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3339347562573891</v>
+        <v>0.3340158640492313</v>
       </c>
       <c r="J26" t="n">
         <v>-13.21</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4692139823070384</v>
+        <v>0.4693279616887533</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2420,11 +2420,11 @@
       </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="n">
-        <v>4.563412132168388</v>
+        <v>4.564520517187828</v>
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
-        <v>0.3339347562573891</v>
+        <v>0.3340158640492313</v>
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
@@ -2453,25 +2453,25 @@
         <v>270.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1013988328992703</v>
+        <v>0.1013955884731691</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2406863074977069</v>
+        <v>0.2406786063347258</v>
       </c>
       <c r="G27" t="n">
         <v>-0.332925</v>
       </c>
       <c r="H27" t="n">
-        <v>0.102247504860163</v>
+        <v>0.102250323106358</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2427007657977054</v>
+        <v>0.2427074553546845</v>
       </c>
       <c r="J27" t="n">
         <v>-0.332925</v>
       </c>
       <c r="K27" t="n">
-        <v>1.008369642298898</v>
+        <v>1.00842970237719</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2495,11 +2495,11 @@
       </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="n">
-        <v>0.102247504860163</v>
+        <v>0.102250323106358</v>
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="n">
-        <v>0.2427007657977054</v>
+        <v>0.2427074553546845</v>
       </c>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="n">
@@ -2536,25 +2536,25 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>6.766254088154464</v>
+        <v>6.76625387898346</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2961120142513243</v>
+        <v>0.2961120050973601</v>
       </c>
       <c r="G28" t="n">
         <v>-13.21</v>
       </c>
       <c r="H28" t="n">
-        <v>2.989826998793612</v>
+        <v>2.990606801680859</v>
       </c>
       <c r="I28" t="n">
-        <v>0.130843991866295</v>
+        <v>0.1308781184303663</v>
       </c>
       <c r="J28" t="n">
         <v>-13.21</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4418732964858411</v>
+        <v>0.441988558982383</v>
       </c>
       <c r="L28" t="n">
         <v>0.001</v>
@@ -2576,11 +2576,11 @@
       </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="n">
-        <v>2.989826998793612</v>
+        <v>2.990606801680859</v>
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
-        <v>0.130843991866295</v>
+        <v>0.1308781184303663</v>
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
@@ -2609,25 +2609,25 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1308412072971918</v>
+        <v>0.1308423337167816</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2719787496464139</v>
+        <v>0.2719810911273429</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
       </c>
       <c r="H29" t="n">
-        <v>0.059079127950008</v>
+        <v>0.059085188168694</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1228073913560453</v>
+        <v>0.1228199886924261</v>
       </c>
       <c r="J29" t="n">
         <v>-2.201133727157571</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4515330389440391</v>
+        <v>0.4515754686597724</v>
       </c>
       <c r="L29" t="n">
         <v>0.14</v>
@@ -2653,11 +2653,11 @@
       </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
-        <v>0.059079127950008</v>
+        <v>0.059085188168694</v>
       </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
-        <v>0.1228073913560453</v>
+        <v>0.1228199886924261</v>
       </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="n">
@@ -2694,10 +2694,10 @@
         <v>126.11004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.00710568005981288</v>
+        <v>0.007105612999394498</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06718478315650429</v>
+        <v>0.06718414909479177</v>
       </c>
       <c r="G30" t="n">
         <v>-0.078476895921783</v>

--- a/application/output_max_withoutMP/compiled_results.xlsx
+++ b/application/output_max_withoutMP/compiled_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -616,10 +616,10 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382212023962</v>
+        <v>17.83579802019262</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5695516930700739</v>
+        <v>0.5702543166250014</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
@@ -634,7 +634,7 @@
         <v>-13.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5802207429063961</v>
+        <v>0.5795058394867494</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -687,10 +687,10 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>6.941370050829049</v>
+        <v>6.949933224568027</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3563056207579458</v>
+        <v>0.3567451747526734</v>
       </c>
       <c r="G3" t="n">
         <v>-13.21</v>
@@ -705,7 +705,7 @@
         <v>-13.21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5426628828235762</v>
+        <v>0.541994255313475</v>
       </c>
       <c r="L3" t="n">
         <v>0.08</v>
@@ -760,10 +760,10 @@
         <v>90.08</v>
       </c>
       <c r="E4" t="n">
-        <v>20.06614445553155</v>
+        <v>20.0908989192975</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7595227094522464</v>
+        <v>0.7604596895199529</v>
       </c>
       <c r="G4" t="n">
         <v>-13.21</v>
@@ -778,7 +778,7 @@
         <v>-13.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2387642438510412</v>
+        <v>0.2384700568738055</v>
       </c>
       <c r="L4" t="n">
         <v>0.13</v>
@@ -833,10 +833,10 @@
         <v>90.08</v>
       </c>
       <c r="E5" t="n">
-        <v>22.3408925077748</v>
+        <v>22.36722787308386</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8456240931928949</v>
+        <v>0.8466209118920863</v>
       </c>
       <c r="G5" t="n">
         <v>-13.21</v>
@@ -851,7 +851,7 @@
         <v>-13.21</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3704236327622291</v>
+        <v>0.369987492810365</v>
       </c>
       <c r="L5" t="n">
         <v>0.14</v>
@@ -906,10 +906,10 @@
         <v>90.08</v>
       </c>
       <c r="E6" t="n">
-        <v>20.06614445553155</v>
+        <v>20.0908989192975</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7595227094522464</v>
+        <v>0.7604596895199529</v>
       </c>
       <c r="G6" t="n">
         <v>-13.21</v>
@@ -924,7 +924,7 @@
         <v>-13.21</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2387642438510412</v>
+        <v>0.2384700568738055</v>
       </c>
       <c r="L6" t="n">
         <v>0.13</v>
@@ -979,10 +979,10 @@
         <v>90.08</v>
       </c>
       <c r="E7" t="n">
-        <v>22.3408925077748</v>
+        <v>22.36722787308386</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8456240931928949</v>
+        <v>0.8466209118920863</v>
       </c>
       <c r="G7" t="n">
         <v>-13.21</v>
@@ -997,7 +997,7 @@
         <v>-13.21</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3704236327622291</v>
+        <v>0.369987492810365</v>
       </c>
       <c r="L7" t="n">
         <v>0.14</v>
@@ -1052,10 +1052,10 @@
         <v>137.11</v>
       </c>
       <c r="E8" t="n">
-        <v>9.055951931401262</v>
+        <v>9.067515113986417</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5217370655392575</v>
+        <v>0.5224032507173562</v>
       </c>
       <c r="G8" t="n">
         <v>-13.21</v>
@@ -1070,7 +1070,7 @@
         <v>-13.21</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3536497644646057</v>
+        <v>0.3531987790792718</v>
       </c>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
@@ -1125,10 +1125,10 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697655376507</v>
+        <v>2.848304889328497</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995809453898</v>
+        <v>0.2804547627048343</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
@@ -1143,7 +1143,7 @@
         <v>-13.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4461157911198456</v>
+        <v>0.4455508080542069</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>12.89443784637229</v>
+        <v>12.93506843424415</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4882834988695184</v>
+        <v>0.48982208828641</v>
       </c>
       <c r="G10" t="n">
         <v>-13.21</v>
@@ -1214,7 +1214,7 @@
         <v>-13.21</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9974103011434248</v>
+        <v>0.994277316800055</v>
       </c>
       <c r="L10" t="n">
         <v>0.11</v>
@@ -1269,10 +1269,10 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>11.19787295673656</v>
+        <v>11.21102148593617</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3487541613793045</v>
+        <v>0.3491636681036706</v>
       </c>
       <c r="G11" t="n">
         <v>-13.21</v>
@@ -1287,7 +1287,7 @@
         <v>-13.21</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7847963184682207</v>
+        <v>0.7838758923213196</v>
       </c>
       <c r="L11" t="n">
         <v>0.04</v>
@@ -1342,10 +1342,10 @@
         <v>146.1</v>
       </c>
       <c r="E12" t="n">
-        <v>12.48937108880216</v>
+        <v>12.50281531047952</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7667243171293748</v>
+        <v>0.7675496598637382</v>
       </c>
       <c r="G12" t="n">
         <v>-13.21</v>
@@ -1360,7 +1360,7 @@
         <v>-13.21</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3991280720214939</v>
+        <v>0.398698891381401</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1413,10 +1413,10 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>7.0962042261573</v>
+        <v>7.104774546832009</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4864762422056842</v>
+        <v>0.4870637756620864</v>
       </c>
       <c r="G13" t="n">
         <v>-13.21</v>
@@ -1431,7 +1431,7 @@
         <v>-13.21</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4352194231593061</v>
+        <v>0.434694428313129</v>
       </c>
       <c r="L13" t="n">
         <v>0.15</v>
@@ -1486,10 +1486,10 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>2.76196014032085</v>
+        <v>2.765203229139217</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2975663920683603</v>
+        <v>0.2979157940111148</v>
       </c>
       <c r="G14" t="n">
         <v>-13.21</v>
@@ -1504,7 +1504,7 @@
         <v>-13.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2594705757643323</v>
+        <v>0.2591662631864758</v>
       </c>
       <c r="L14" t="n">
         <v>0.1</v>
@@ -1559,10 +1559,10 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>2.677177418561634</v>
+        <v>2.680320957381447</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2727280958051019</v>
+        <v>0.2730483328392531</v>
       </c>
       <c r="G15" t="n">
         <v>-13.21</v>
@@ -1577,7 +1577,7 @@
         <v>-13.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2721317837256348</v>
+        <v>0.2718126216402545</v>
       </c>
       <c r="L15" t="n">
         <v>0.005</v>
@@ -1632,10 +1632,10 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>12.52385380260014</v>
+        <v>12.54392383586099</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3900514094987315</v>
+        <v>0.3906764842469256</v>
       </c>
       <c r="G16" t="n">
         <v>-13.21</v>
@@ -1650,7 +1650,7 @@
         <v>-13.21</v>
       </c>
       <c r="K16" t="n">
-        <v>0.987275590808789</v>
+        <v>0.9856959691366205</v>
       </c>
       <c r="L16" t="n">
         <v>0.06</v>
@@ -1705,10 +1705,10 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>24.24659121710067</v>
+        <v>24.27650286081777</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9074664854372223</v>
+        <v>0.9085859753463218</v>
       </c>
       <c r="G17" t="n">
         <v>-13.21</v>
@@ -1723,7 +1723,7 @@
         <v>-13.21</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8726096559010932</v>
+        <v>0.8715344932517999</v>
       </c>
       <c r="L17" t="n">
         <v>0.6899999999999999</v>
@@ -1778,10 +1778,10 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>10.42241533005079</v>
+        <v>10.43527287151567</v>
       </c>
       <c r="F18" t="n">
-        <v>0.613513272762569</v>
+        <v>0.6142701292199257</v>
       </c>
       <c r="G18" t="n">
         <v>-13.21</v>
@@ -1796,7 +1796,7 @@
         <v>-13.21</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4613605462581652</v>
+        <v>0.4607920932405188</v>
       </c>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
@@ -1851,10 +1851,10 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969093036182524</v>
+        <v>3.974395028628913</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540541183177003</v>
+        <v>0.4546606527283644</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
@@ -1869,7 +1869,7 @@
         <v>-13.21</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2713859107560088</v>
+        <v>0.2710238717441542</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1922,10 +1922,10 @@
         <v>268.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09996364001457181</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2355252700336561</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>-0.332925</v>
@@ -1939,8 +1939,10 @@
       <c r="J20" t="n">
         <v>-0.332925</v>
       </c>
-      <c r="K20" t="n">
-        <v>1.008289313117494</v>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -2009,13 +2011,13 @@
         <v>242.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1141673836281253</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.242883203446196</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.332925</v>
+        <v>-0.2904283587044502</v>
       </c>
       <c r="H21" t="n">
         <v>0.115082140347757</v>
@@ -2026,8 +2028,10 @@
       <c r="J21" t="n">
         <v>-0.332925</v>
       </c>
-      <c r="K21" t="n">
-        <v>1.008012417299597</v>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -2092,10 +2096,10 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>12.48937108880215</v>
+        <v>12.50281576818371</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5410628137990313</v>
+        <v>0.541645262347088</v>
       </c>
       <c r="G22" t="n">
         <v>-13.21</v>
@@ -2110,7 +2114,7 @@
         <v>-13.21</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3819206923216978</v>
+        <v>0.3815100007340863</v>
       </c>
       <c r="L22" t="n">
         <v>0.13</v>
@@ -2165,10 +2169,10 @@
         <v>329.4</v>
       </c>
       <c r="E23" t="n">
-        <v>2.511143874209327</v>
+        <v>2.516212267075455</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3475710873793104</v>
+        <v>0.3482726110306784</v>
       </c>
       <c r="G23" t="n">
         <v>-13.21</v>
@@ -2183,7 +2187,7 @@
         <v>-13.21</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1959928291510822</v>
+        <v>0.1955980418471334</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2236,10 +2240,10 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>3.969093035873841</v>
+        <v>3.974395028628931</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3806549566823588</v>
+        <v>0.3811634430807067</v>
       </c>
       <c r="G24" t="n">
         <v>-13.21</v>
@@ -2254,7 +2258,7 @@
         <v>-13.21</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2713896977220466</v>
+        <v>0.2710276536371574</v>
       </c>
       <c r="L24" t="n">
         <v>0.0002</v>
@@ -2309,10 +2313,10 @@
         <v>246.3</v>
       </c>
       <c r="E25" t="n">
-        <v>2.957466999770999</v>
+        <v>2.961217231488562</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3060784623565949</v>
+        <v>0.3064665867744434</v>
       </c>
       <c r="G25" t="n">
         <v>-13.21</v>
@@ -2327,7 +2331,7 @@
         <v>-13.21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4477589942963823</v>
+        <v>0.4471919301970728</v>
       </c>
       <c r="L25" t="n">
         <v>0.003</v>
@@ -2382,10 +2386,10 @@
         <v>174.15</v>
       </c>
       <c r="E26" t="n">
-        <v>9.725652187360838</v>
+        <v>9.737650172584237</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7116896739912171</v>
+        <v>0.7125676451573347</v>
       </c>
       <c r="G26" t="n">
         <v>-13.21</v>
@@ -2400,7 +2404,7 @@
         <v>-13.21</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4693279616887533</v>
+        <v>0.4687496917930938</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2453,10 +2457,10 @@
         <v>270.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1013955884731691</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2406786063347258</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>-0.332925</v>
@@ -2470,8 +2474,10 @@
       <c r="J27" t="n">
         <v>-0.332925</v>
       </c>
-      <c r="K27" t="n">
-        <v>1.00842970237719</v>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2536,10 +2542,10 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>6.76625387898346</v>
+        <v>6.774435839264163</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2961120050973601</v>
+        <v>0.2964700727530642</v>
       </c>
       <c r="G28" t="n">
         <v>-13.21</v>
@@ -2554,7 +2560,7 @@
         <v>-13.21</v>
       </c>
       <c r="K28" t="n">
-        <v>0.441988558982383</v>
+        <v>0.441454738466561</v>
       </c>
       <c r="L28" t="n">
         <v>0.001</v>
@@ -2609,10 +2615,10 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1308423337167816</v>
+        <v>0.1333366471518599</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2719810911273429</v>
+        <v>0.2771660039182953</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
@@ -2627,7 +2633,7 @@
         <v>-2.201133727157571</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4515754686597724</v>
+        <v>0.4431278979244214</v>
       </c>
       <c r="L29" t="n">
         <v>0.14</v>
@@ -2635,7 +2641,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>c_sources:EX_glc__D_e;BIOMASS_AERO_SC_hvd:(0.009615384615,0.14);EX_glc__D_e:(-2.20113372715757,1000);EX_nh4_e:(-0.181824845165991,1000);EX_o2_e:(-26.25403530509562,1000)</t>
+          <t>c_sources:EX_glc__D_e;BIOMASS_AERO_SC_RBA:(0.009615384615,0.14);EX_glc__D_e:(-2.20113372715757,1000);EX_nh4_e:(-0.181824845165991,1000);EX_o2_e:(-26.25403530509562,1000)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2694,10 +2700,10 @@
         <v>126.11004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007105612999394498</v>
+        <v>-8.946889123367239e-07</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06718414909479177</v>
+        <v>8.45935646720553e-06</v>
       </c>
       <c r="G30" t="n">
         <v>-0.078476895921783</v>
@@ -2710,7 +2716,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>c_sources:EX_xyl__D_e,EX_glc__D_e;EX_xyl__D_e:(-0.0266525306904169,-0.0266525306904169);EX_glc__D_e:(-0.0518243652313661,-0.0518243652313661);BIOMASS_AERO_SC_hvd:(0,0.0138888888888889);BiomassKim_e:(0,0);EX_btn_c:(0,0.02);ATPM_c:(0,1000);EX_4abz_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_thm_e:(-1000,1000);EX_o2_e:(-26.25403530509562,1000)</t>
+          <t>c_sources:EX_xyl__D_e,EX_glc__D_e;EX_xyl__D_e:(-0.0266525306904169,-0.0266525306904169);EX_glc__D_e:(-0.0518243652313661,-0.0518243652313661);BIOMASS_AERO_SC_RBA:(0.0138888888888888,0.0138888888888889);ATPM_c:(0,1000);EX_4abz_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_thm_e:(-1000,1000);EX_o2_e:(-26.25403530509562,1000)</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
